--- a/app/resource/xlsx/major_proposal_template_5_stage3.xlsx
+++ b/app/resource/xlsx/major_proposal_template_5_stage3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Bridge_Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\00-Template-Do Not Modify\00-Bridge template\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF340C5-2A24-4789-BE2B-7E8E40562276}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{058BB0A4-F233-4FC0-AED3-F88E9C8371E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F1EA209-DB64-4862-B5BC-AB2E13480384}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="285">
   <si>
     <t>Mechanical Design Certificate</t>
   </si>
@@ -988,9 +988,6 @@
     <t>ATT:</t>
   </si>
   <si>
-    <t>SERVICES</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -1001,6 +998,12 @@
   </si>
   <si>
     <t>TOTAL (include GST)</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Email:</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1018,7 @@
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="167" formatCode="[$-C09]dd\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1222,22 +1225,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1247,6 +1234,14 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1278,7 +1273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1755,6 +1750,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1763,7 +1784,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="23" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="244">
+  <cellXfs count="247">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2063,11 +2084,14 @@
     <xf numFmtId="44" fontId="16" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="32" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="30" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2086,8 +2110,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2101,18 +2128,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2122,7 +2152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3762,8 +3792,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A27:X502"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A118" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="F410" sqref="F410:F411"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A394" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="G418" sqref="G418:G419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3783,61 +3813,77 @@
     <col min="18" max="18" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="27" spans="2:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B27" s="136"/>
-      <c r="C27" s="136"/>
-      <c r="D27" s="136"/>
-      <c r="E27" s="136"/>
-      <c r="F27" s="136"/>
-      <c r="G27" s="136"/>
+    <row r="27" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="122"/>
+      <c r="C28" s="122"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="122"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
     </row>
     <row r="31" spans="2:7" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
+      <c r="C31" s="140"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="140"/>
+      <c r="F31" s="140"/>
     </row>
     <row r="37" spans="1:15" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="121" t="s">
         <v>226</v>
       </c>
-      <c r="F37" s="140" t="s">
+      <c r="F37" s="143" t="s">
         <v>229</v>
       </c>
-      <c r="G37" s="140"/>
-      <c r="H37" s="140"/>
+      <c r="G37" s="143"/>
+      <c r="H37" s="143"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F38" s="139" t="s">
+      <c r="F38" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
+      <c r="G38" s="142"/>
+      <c r="H38" s="142"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="35"/>
       <c r="B39" s="35"/>
       <c r="C39" s="35"/>
       <c r="D39" s="35"/>
-      <c r="F39" s="139" t="s">
+      <c r="F39" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="139"/>
-      <c r="H39" s="139"/>
+      <c r="G39" s="142"/>
+      <c r="H39" s="142"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F40" s="139" t="s">
+      <c r="F40" s="142" t="s">
         <v>227</v>
       </c>
-      <c r="G40" s="139"/>
-      <c r="H40" s="139"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="F41" s="139" t="s">
+      <c r="F41" s="142" t="s">
         <v>228</v>
       </c>
-      <c r="G41" s="139"/>
-      <c r="H41" s="139"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="142"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
@@ -3845,10 +3891,10 @@
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="138"/>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
+      <c r="A43" s="141"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="141"/>
+      <c r="D43" s="141"/>
       <c r="H43" s="33" t="s">
         <v>240</v>
       </c>
@@ -3857,21 +3903,21 @@
       <c r="A45" s="56" t="s">
         <v>278</v>
       </c>
-      <c r="B45" s="122"/>
-      <c r="C45" s="122" t="e">
+      <c r="B45" s="123"/>
+      <c r="C45" s="123" t="e">
         <f>IF(#REF!&lt;&gt;"",#REF!,"")</f>
         <v>#REF!</v>
       </c>
-      <c r="G45" s="122"/>
-      <c r="H45" s="122"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
     </row>
     <row r="46" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D46" s="40"/>
       <c r="E46" s="40"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="142"/>
-      <c r="J46" s="122"/>
-      <c r="K46" s="122"/>
+      <c r="G46" s="145"/>
+      <c r="H46" s="145"/>
+      <c r="J46" s="123"/>
+      <c r="K46" s="123"/>
       <c r="L46" s="40"/>
       <c r="M46" s="40"/>
       <c r="N46" s="45"/>
@@ -3928,14 +3974,14 @@
       <c r="O50" s="39"/>
     </row>
     <row r="51" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="144"/>
-      <c r="B51" s="144"/>
-      <c r="C51" s="144"/>
-      <c r="D51" s="144"/>
-      <c r="E51" s="144"/>
-      <c r="F51" s="144"/>
-      <c r="G51" s="144"/>
-      <c r="H51" s="144"/>
+      <c r="A51" s="147"/>
+      <c r="B51" s="147"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="147"/>
+      <c r="F51" s="147"/>
+      <c r="G51" s="147"/>
+      <c r="H51" s="147"/>
       <c r="J51" s="44"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
@@ -3959,24 +4005,24 @@
       <c r="O52" s="36"/>
     </row>
     <row r="53" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="129"/>
-      <c r="B53" s="129"/>
-      <c r="C53" s="129"/>
-      <c r="D53" s="129"/>
-      <c r="E53" s="129"/>
-      <c r="F53" s="129"/>
-      <c r="G53" s="129"/>
-      <c r="H53" s="129"/>
+      <c r="A53" s="131"/>
+      <c r="B53" s="131"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
+      <c r="F53" s="131"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="131"/>
     </row>
     <row r="54" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="129"/>
-      <c r="B54" s="129"/>
-      <c r="C54" s="129"/>
-      <c r="D54" s="129"/>
-      <c r="E54" s="129"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="129"/>
-      <c r="H54" s="129"/>
+      <c r="A54" s="131"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="131"/>
+      <c r="F54" s="131"/>
+      <c r="G54" s="131"/>
+      <c r="H54" s="131"/>
       <c r="I54" s="29"/>
       <c r="J54" s="29"/>
       <c r="K54" s="29"/>
@@ -3984,89 +4030,89 @@
       <c r="M54" s="29"/>
       <c r="N54" s="29"/>
       <c r="O54" s="29"/>
-      <c r="P54" s="143"/>
-      <c r="Q54" s="143"/>
-      <c r="R54" s="143"/>
-      <c r="S54" s="143"/>
-      <c r="T54" s="143"/>
-      <c r="U54" s="143"/>
-      <c r="V54" s="143"/>
-      <c r="W54" s="143"/>
+      <c r="P54" s="146"/>
+      <c r="Q54" s="146"/>
+      <c r="R54" s="146"/>
+      <c r="S54" s="146"/>
+      <c r="T54" s="146"/>
+      <c r="U54" s="146"/>
+      <c r="V54" s="146"/>
+      <c r="W54" s="146"/>
     </row>
     <row r="55" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="56" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="129" t="s">
+      <c r="A56" s="131" t="s">
         <v>241</v>
       </c>
-      <c r="B56" s="129"/>
-      <c r="C56" s="129"/>
-      <c r="D56" s="129"/>
-      <c r="E56" s="129"/>
-      <c r="F56" s="129"/>
-      <c r="G56" s="129"/>
-      <c r="H56" s="129"/>
-      <c r="L56" s="141"/>
-      <c r="M56" s="141"/>
-      <c r="N56" s="141"/>
-      <c r="O56" s="141"/>
-      <c r="P56" s="141"/>
-      <c r="Q56" s="141"/>
-      <c r="R56" s="141"/>
-      <c r="S56" s="141"/>
+      <c r="B56" s="131"/>
+      <c r="C56" s="131"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+      <c r="L56" s="144"/>
+      <c r="M56" s="144"/>
+      <c r="N56" s="144"/>
+      <c r="O56" s="144"/>
+      <c r="P56" s="144"/>
+      <c r="Q56" s="144"/>
+      <c r="R56" s="144"/>
+      <c r="S56" s="144"/>
     </row>
     <row r="57" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="129"/>
-      <c r="B57" s="129"/>
-      <c r="C57" s="129"/>
-      <c r="D57" s="129"/>
-      <c r="E57" s="129"/>
-      <c r="F57" s="129"/>
-      <c r="G57" s="129"/>
-      <c r="H57" s="129"/>
-      <c r="L57" s="141"/>
-      <c r="M57" s="141"/>
-      <c r="N57" s="141"/>
-      <c r="O57" s="141"/>
-      <c r="P57" s="141"/>
-      <c r="Q57" s="141"/>
-      <c r="R57" s="141"/>
-      <c r="S57" s="141"/>
+      <c r="A57" s="131"/>
+      <c r="B57" s="131"/>
+      <c r="C57" s="131"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="131"/>
+      <c r="F57" s="131"/>
+      <c r="G57" s="131"/>
+      <c r="H57" s="131"/>
+      <c r="L57" s="144"/>
+      <c r="M57" s="144"/>
+      <c r="N57" s="144"/>
+      <c r="O57" s="144"/>
+      <c r="P57" s="144"/>
+      <c r="Q57" s="144"/>
+      <c r="R57" s="144"/>
+      <c r="S57" s="144"/>
     </row>
     <row r="58" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="129"/>
-      <c r="B58" s="129"/>
-      <c r="C58" s="129"/>
-      <c r="D58" s="129"/>
-      <c r="E58" s="129"/>
-      <c r="F58" s="129"/>
-      <c r="G58" s="129"/>
-      <c r="H58" s="129"/>
-      <c r="L58" s="141"/>
-      <c r="M58" s="141"/>
-      <c r="N58" s="141"/>
-      <c r="O58" s="141"/>
-      <c r="P58" s="141"/>
-      <c r="Q58" s="141"/>
-      <c r="R58" s="141"/>
-      <c r="S58" s="141"/>
+      <c r="A58" s="131"/>
+      <c r="B58" s="131"/>
+      <c r="C58" s="131"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="131"/>
+      <c r="F58" s="131"/>
+      <c r="G58" s="131"/>
+      <c r="H58" s="131"/>
+      <c r="L58" s="144"/>
+      <c r="M58" s="144"/>
+      <c r="N58" s="144"/>
+      <c r="O58" s="144"/>
+      <c r="P58" s="144"/>
+      <c r="Q58" s="144"/>
+      <c r="R58" s="144"/>
+      <c r="S58" s="144"/>
     </row>
     <row r="59" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="129"/>
-      <c r="B59" s="129"/>
-      <c r="C59" s="129"/>
-      <c r="D59" s="129"/>
-      <c r="E59" s="129"/>
-      <c r="F59" s="129"/>
-      <c r="G59" s="129"/>
-      <c r="H59" s="129"/>
-      <c r="L59" s="141"/>
-      <c r="M59" s="141"/>
-      <c r="N59" s="141"/>
-      <c r="O59" s="141"/>
-      <c r="P59" s="141"/>
-      <c r="Q59" s="141"/>
-      <c r="R59" s="141"/>
-      <c r="S59" s="141"/>
+      <c r="A59" s="131"/>
+      <c r="B59" s="131"/>
+      <c r="C59" s="131"/>
+      <c r="D59" s="131"/>
+      <c r="E59" s="131"/>
+      <c r="F59" s="131"/>
+      <c r="G59" s="131"/>
+      <c r="H59" s="131"/>
+      <c r="L59" s="144"/>
+      <c r="M59" s="144"/>
+      <c r="N59" s="144"/>
+      <c r="O59" s="144"/>
+      <c r="P59" s="144"/>
+      <c r="Q59" s="144"/>
+      <c r="R59" s="144"/>
+      <c r="S59" s="144"/>
     </row>
     <row r="60" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="16"/>
@@ -4083,28 +4129,28 @@
       <c r="O60" s="42"/>
     </row>
     <row r="61" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="129" t="s">
+      <c r="A61" s="131" t="s">
         <v>242</v>
       </c>
-      <c r="B61" s="129"/>
-      <c r="C61" s="129"/>
-      <c r="D61" s="129"/>
-      <c r="E61" s="129"/>
-      <c r="F61" s="129"/>
-      <c r="G61" s="129"/>
-      <c r="H61" s="129"/>
+      <c r="B61" s="131"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="131"/>
+      <c r="E61" s="131"/>
+      <c r="F61" s="131"/>
+      <c r="G61" s="131"/>
+      <c r="H61" s="131"/>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
     </row>
     <row r="62" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="129"/>
-      <c r="B62" s="129"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="129"/>
-      <c r="E62" s="129"/>
-      <c r="F62" s="129"/>
-      <c r="G62" s="129"/>
-      <c r="H62" s="129"/>
+      <c r="A62" s="131"/>
+      <c r="B62" s="131"/>
+      <c r="C62" s="131"/>
+      <c r="D62" s="131"/>
+      <c r="E62" s="131"/>
+      <c r="F62" s="131"/>
+      <c r="G62" s="131"/>
+      <c r="H62" s="131"/>
       <c r="J62" s="35"/>
       <c r="L62" s="35"/>
       <c r="Q62" s="35"/>
@@ -4116,15 +4162,15 @@
         <f t="shared" ref="A63:A66" si="0">IF(B63&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="B63" s="129" t="s">
+      <c r="B63" s="131" t="s">
         <v>273</v>
       </c>
-      <c r="C63" s="129"/>
-      <c r="D63" s="129"/>
-      <c r="E63" s="129"/>
-      <c r="F63" s="129"/>
-      <c r="G63" s="129"/>
-      <c r="H63" s="129"/>
+      <c r="C63" s="131"/>
+      <c r="D63" s="131"/>
+      <c r="E63" s="131"/>
+      <c r="F63" s="131"/>
+      <c r="G63" s="131"/>
+      <c r="H63" s="131"/>
       <c r="T63" s="47"/>
       <c r="U63" s="47"/>
       <c r="V63" s="48"/>
@@ -4134,30 +4180,30 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B64" s="129" t="s">
+      <c r="B64" s="131" t="s">
         <v>244</v>
       </c>
-      <c r="C64" s="129"/>
-      <c r="D64" s="129"/>
-      <c r="E64" s="129"/>
-      <c r="F64" s="129"/>
-      <c r="G64" s="129"/>
-      <c r="H64" s="129"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="131"/>
+      <c r="E64" s="131"/>
+      <c r="F64" s="131"/>
+      <c r="G64" s="131"/>
+      <c r="H64" s="131"/>
     </row>
     <row r="65" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="31" t="str">
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B65" s="129" t="s">
+      <c r="B65" s="131" t="s">
         <v>245</v>
       </c>
-      <c r="C65" s="129"/>
-      <c r="D65" s="129"/>
-      <c r="E65" s="129"/>
-      <c r="F65" s="129"/>
-      <c r="G65" s="129"/>
-      <c r="H65" s="129"/>
+      <c r="C65" s="131"/>
+      <c r="D65" s="131"/>
+      <c r="E65" s="131"/>
+      <c r="F65" s="131"/>
+      <c r="G65" s="131"/>
+      <c r="H65" s="131"/>
       <c r="J65" s="36"/>
       <c r="K65" s="33"/>
     </row>
@@ -4166,15 +4212,15 @@
         <f t="shared" si="0"/>
         <v>•</v>
       </c>
-      <c r="B66" s="129" t="s">
+      <c r="B66" s="131" t="s">
         <v>246</v>
       </c>
-      <c r="C66" s="129"/>
-      <c r="D66" s="129"/>
-      <c r="E66" s="129"/>
-      <c r="F66" s="129"/>
-      <c r="G66" s="129"/>
-      <c r="H66" s="129"/>
+      <c r="C66" s="131"/>
+      <c r="D66" s="131"/>
+      <c r="E66" s="131"/>
+      <c r="F66" s="131"/>
+      <c r="G66" s="131"/>
+      <c r="H66" s="131"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11"/>
       <c r="P66" s="43"/>
@@ -4195,27 +4241,27 @@
       <c r="U67" s="43"/>
     </row>
     <row r="68" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="129" t="s">
+      <c r="A68" s="131" t="s">
         <v>243</v>
       </c>
-      <c r="B68" s="129"/>
-      <c r="C68" s="129"/>
-      <c r="D68" s="129"/>
-      <c r="E68" s="129"/>
-      <c r="F68" s="129"/>
-      <c r="G68" s="129"/>
-      <c r="H68" s="129"/>
+      <c r="B68" s="131"/>
+      <c r="C68" s="131"/>
+      <c r="D68" s="131"/>
+      <c r="E68" s="131"/>
+      <c r="F68" s="131"/>
+      <c r="G68" s="131"/>
+      <c r="H68" s="131"/>
       <c r="V68" s="43"/>
     </row>
     <row r="69" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="129"/>
-      <c r="B69" s="129"/>
-      <c r="C69" s="129"/>
-      <c r="D69" s="129"/>
-      <c r="E69" s="129"/>
-      <c r="F69" s="129"/>
-      <c r="G69" s="129"/>
-      <c r="H69" s="129"/>
+      <c r="A69" s="131"/>
+      <c r="B69" s="131"/>
+      <c r="C69" s="131"/>
+      <c r="D69" s="131"/>
+      <c r="E69" s="131"/>
+      <c r="F69" s="131"/>
+      <c r="G69" s="131"/>
+      <c r="H69" s="131"/>
       <c r="L69" s="35"/>
       <c r="V69" s="43"/>
     </row>
@@ -4358,22 +4404,22 @@
       </c>
     </row>
     <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="129"/>
-      <c r="C86" s="129"/>
-      <c r="D86" s="129"/>
-      <c r="E86" s="129"/>
-      <c r="F86" s="129"/>
-      <c r="G86" s="129"/>
-      <c r="H86" s="129"/>
+      <c r="B86" s="131"/>
+      <c r="C86" s="131"/>
+      <c r="D86" s="131"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="131"/>
+      <c r="G86" s="131"/>
+      <c r="H86" s="131"/>
     </row>
     <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="129"/>
-      <c r="C87" s="129"/>
-      <c r="D87" s="129"/>
-      <c r="E87" s="129"/>
-      <c r="F87" s="129"/>
-      <c r="G87" s="129"/>
-      <c r="H87" s="129"/>
+      <c r="B87" s="131"/>
+      <c r="C87" s="131"/>
+      <c r="D87" s="131"/>
+      <c r="E87" s="131"/>
+      <c r="F87" s="131"/>
+      <c r="G87" s="131"/>
+      <c r="H87" s="131"/>
     </row>
     <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="89" spans="1:17" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4420,15 +4466,15 @@
     </row>
     <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
-      <c r="B91" s="129" t="s">
+      <c r="B91" s="131" t="s">
         <v>247</v>
       </c>
-      <c r="C91" s="129"/>
-      <c r="D91" s="129"/>
-      <c r="E91" s="129"/>
-      <c r="F91" s="129"/>
-      <c r="G91" s="129"/>
-      <c r="H91" s="129"/>
+      <c r="C91" s="131"/>
+      <c r="D91" s="131"/>
+      <c r="E91" s="131"/>
+      <c r="F91" s="131"/>
+      <c r="G91" s="131"/>
+      <c r="H91" s="131"/>
       <c r="K91" s="36"/>
       <c r="L91" s="36"/>
       <c r="M91" s="36"/>
@@ -4437,23 +4483,23 @@
     </row>
     <row r="92" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
-      <c r="B92" s="129"/>
-      <c r="C92" s="129"/>
-      <c r="D92" s="129"/>
-      <c r="E92" s="129"/>
-      <c r="F92" s="129"/>
-      <c r="G92" s="129"/>
-      <c r="H92" s="129"/>
+      <c r="B92" s="131"/>
+      <c r="C92" s="131"/>
+      <c r="D92" s="131"/>
+      <c r="E92" s="131"/>
+      <c r="F92" s="131"/>
+      <c r="G92" s="131"/>
+      <c r="H92" s="131"/>
     </row>
     <row r="93" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
-      <c r="B93" s="129"/>
-      <c r="C93" s="129"/>
-      <c r="D93" s="129"/>
-      <c r="E93" s="129"/>
-      <c r="F93" s="129"/>
-      <c r="G93" s="129"/>
-      <c r="H93" s="129"/>
+      <c r="B93" s="131"/>
+      <c r="C93" s="131"/>
+      <c r="D93" s="131"/>
+      <c r="E93" s="131"/>
+      <c r="F93" s="131"/>
+      <c r="G93" s="131"/>
+      <c r="H93" s="131"/>
     </row>
     <row r="94" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
@@ -6360,16 +6406,16 @@
         <f t="shared" ref="K272:K329" si="2">IF(L272&lt;&gt;"","•","")</f>
         <v>•</v>
       </c>
-      <c r="L272" s="127" t="s">
+      <c r="L272" s="128" t="s">
         <v>248</v>
       </c>
-      <c r="M272" s="127"/>
-      <c r="N272" s="127"/>
-      <c r="O272" s="127"/>
-      <c r="P272" s="127"/>
-      <c r="Q272" s="127"/>
-      <c r="R272" s="127"/>
-      <c r="S272" s="127"/>
+      <c r="M272" s="128"/>
+      <c r="N272" s="128"/>
+      <c r="O272" s="128"/>
+      <c r="P272" s="128"/>
+      <c r="Q272" s="128"/>
+      <c r="R272" s="128"/>
+      <c r="S272" s="128"/>
     </row>
     <row r="273" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="31"/>
@@ -6929,16 +6975,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="L319" s="127" t="s">
+      <c r="L319" s="128" t="s">
         <v>249</v>
       </c>
-      <c r="M319" s="127"/>
-      <c r="N319" s="127"/>
-      <c r="O319" s="127"/>
-      <c r="P319" s="127"/>
-      <c r="Q319" s="127"/>
-      <c r="R319" s="127"/>
-      <c r="S319" s="127"/>
+      <c r="M319" s="128"/>
+      <c r="N319" s="128"/>
+      <c r="O319" s="128"/>
+      <c r="P319" s="128"/>
+      <c r="Q319" s="128"/>
+      <c r="R319" s="128"/>
+      <c r="S319" s="128"/>
     </row>
     <row r="320" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A320" s="31" t="str">
@@ -6995,16 +7041,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="L323" s="129" t="s">
+      <c r="L323" s="131" t="s">
         <v>276</v>
       </c>
-      <c r="M323" s="129"/>
-      <c r="N323" s="129"/>
-      <c r="O323" s="129"/>
-      <c r="P323" s="129"/>
-      <c r="Q323" s="129"/>
-      <c r="R323" s="129"/>
-      <c r="S323" s="129"/>
+      <c r="M323" s="131"/>
+      <c r="N323" s="131"/>
+      <c r="O323" s="131"/>
+      <c r="P323" s="131"/>
+      <c r="Q323" s="131"/>
+      <c r="R323" s="131"/>
+      <c r="S323" s="131"/>
     </row>
     <row r="324" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A324" s="31"/>
@@ -7051,16 +7097,16 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="L327" s="127" t="s">
+      <c r="L327" s="128" t="s">
         <v>252</v>
       </c>
-      <c r="M327" s="127"/>
-      <c r="N327" s="127"/>
-      <c r="O327" s="127"/>
-      <c r="P327" s="127"/>
-      <c r="Q327" s="127"/>
-      <c r="R327" s="127"/>
-      <c r="S327" s="127"/>
+      <c r="M327" s="128"/>
+      <c r="N327" s="128"/>
+      <c r="O327" s="128"/>
+      <c r="P327" s="128"/>
+      <c r="Q327" s="128"/>
+      <c r="R327" s="128"/>
+      <c r="S327" s="128"/>
     </row>
     <row r="328" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A328" s="31"/>
@@ -7080,28 +7126,28 @@
         <f t="shared" si="2"/>
         <v>•</v>
       </c>
-      <c r="L329" s="127" t="s">
+      <c r="L329" s="128" t="s">
         <v>253</v>
       </c>
-      <c r="M329" s="127"/>
-      <c r="N329" s="127"/>
-      <c r="O329" s="127"/>
-      <c r="P329" s="127"/>
-      <c r="Q329" s="127"/>
-      <c r="R329" s="127"/>
-      <c r="S329" s="127"/>
+      <c r="M329" s="128"/>
+      <c r="N329" s="128"/>
+      <c r="O329" s="128"/>
+      <c r="P329" s="128"/>
+      <c r="Q329" s="128"/>
+      <c r="R329" s="128"/>
+      <c r="S329" s="128"/>
     </row>
     <row r="330" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A330" s="31"/>
       <c r="K330" s="31"/>
-      <c r="L330" s="127"/>
-      <c r="M330" s="127"/>
-      <c r="N330" s="127"/>
-      <c r="O330" s="127"/>
-      <c r="P330" s="127"/>
-      <c r="Q330" s="127"/>
-      <c r="R330" s="127"/>
-      <c r="S330" s="127"/>
+      <c r="L330" s="128"/>
+      <c r="M330" s="128"/>
+      <c r="N330" s="128"/>
+      <c r="O330" s="128"/>
+      <c r="P330" s="128"/>
+      <c r="Q330" s="128"/>
+      <c r="R330" s="128"/>
+      <c r="S330" s="128"/>
     </row>
     <row r="331" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A331" s="31"/>
@@ -7611,15 +7657,15 @@
     </row>
     <row r="363" spans="1:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="59"/>
-      <c r="B363" s="129" t="s">
+      <c r="B363" s="131" t="s">
         <v>275</v>
       </c>
-      <c r="C363" s="129"/>
-      <c r="D363" s="129"/>
-      <c r="E363" s="129"/>
-      <c r="F363" s="129"/>
-      <c r="G363" s="129"/>
-      <c r="H363" s="129"/>
+      <c r="C363" s="131"/>
+      <c r="D363" s="131"/>
+      <c r="E363" s="131"/>
+      <c r="F363" s="131"/>
+      <c r="G363" s="131"/>
+      <c r="H363" s="131"/>
       <c r="J363" s="58"/>
       <c r="M363" s="42"/>
       <c r="N363" s="42"/>
@@ -7627,13 +7673,13 @@
     </row>
     <row r="364" spans="1:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="59"/>
-      <c r="B364" s="129"/>
-      <c r="C364" s="129"/>
-      <c r="D364" s="129"/>
-      <c r="E364" s="129"/>
-      <c r="F364" s="129"/>
-      <c r="G364" s="129"/>
-      <c r="H364" s="129"/>
+      <c r="B364" s="131"/>
+      <c r="C364" s="131"/>
+      <c r="D364" s="131"/>
+      <c r="E364" s="131"/>
+      <c r="F364" s="131"/>
+      <c r="G364" s="131"/>
+      <c r="H364" s="131"/>
       <c r="J364" s="58"/>
       <c r="L364" s="42"/>
       <c r="M364" s="42"/>
@@ -7642,13 +7688,13 @@
     </row>
     <row r="365" spans="1:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="59"/>
-      <c r="B365" s="129"/>
-      <c r="C365" s="129"/>
-      <c r="D365" s="129"/>
-      <c r="E365" s="129"/>
-      <c r="F365" s="129"/>
-      <c r="G365" s="129"/>
-      <c r="H365" s="129"/>
+      <c r="B365" s="131"/>
+      <c r="C365" s="131"/>
+      <c r="D365" s="131"/>
+      <c r="E365" s="131"/>
+      <c r="F365" s="131"/>
+      <c r="G365" s="131"/>
+      <c r="H365" s="131"/>
       <c r="J365" s="58"/>
       <c r="L365" s="42"/>
       <c r="M365" s="42"/>
@@ -7657,13 +7703,13 @@
     </row>
     <row r="366" spans="1:19" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="59"/>
-      <c r="B366" s="129"/>
-      <c r="C366" s="129"/>
-      <c r="D366" s="129"/>
-      <c r="E366" s="129"/>
-      <c r="F366" s="129"/>
-      <c r="G366" s="129"/>
-      <c r="H366" s="129"/>
+      <c r="B366" s="131"/>
+      <c r="C366" s="131"/>
+      <c r="D366" s="131"/>
+      <c r="E366" s="131"/>
+      <c r="F366" s="131"/>
+      <c r="G366" s="131"/>
+      <c r="H366" s="131"/>
       <c r="J366" s="58"/>
       <c r="L366" s="42"/>
       <c r="M366" s="42"/>
@@ -7704,15 +7750,15 @@
     </row>
     <row r="369" spans="1:24" s="16" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="59"/>
-      <c r="B369" s="129" t="s">
+      <c r="B369" s="131" t="s">
         <v>218</v>
       </c>
-      <c r="C369" s="129"/>
-      <c r="D369" s="129"/>
-      <c r="E369" s="129"/>
-      <c r="F369" s="129"/>
-      <c r="G369" s="129"/>
-      <c r="H369" s="129"/>
+      <c r="C369" s="131"/>
+      <c r="D369" s="131"/>
+      <c r="E369" s="131"/>
+      <c r="F369" s="131"/>
+      <c r="G369" s="131"/>
+      <c r="H369" s="131"/>
       <c r="J369" s="58"/>
       <c r="L369" s="42"/>
       <c r="M369" s="42"/>
@@ -7721,13 +7767,13 @@
     </row>
     <row r="370" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="59"/>
-      <c r="B370" s="129"/>
-      <c r="C370" s="129"/>
-      <c r="D370" s="129"/>
-      <c r="E370" s="129"/>
-      <c r="F370" s="129"/>
-      <c r="G370" s="129"/>
-      <c r="H370" s="129"/>
+      <c r="B370" s="131"/>
+      <c r="C370" s="131"/>
+      <c r="D370" s="131"/>
+      <c r="E370" s="131"/>
+      <c r="F370" s="131"/>
+      <c r="G370" s="131"/>
+      <c r="H370" s="131"/>
       <c r="J370" s="58" t="s">
         <v>215</v>
       </c>
@@ -7844,15 +7890,15 @@
     </row>
     <row r="377" spans="1:24" s="16" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="58"/>
-      <c r="B377" s="127" t="s">
+      <c r="B377" s="128" t="s">
         <v>222</v>
       </c>
-      <c r="C377" s="127"/>
-      <c r="D377" s="127"/>
-      <c r="E377" s="127"/>
-      <c r="F377" s="127"/>
-      <c r="G377" s="127"/>
-      <c r="H377" s="127"/>
+      <c r="C377" s="128"/>
+      <c r="D377" s="128"/>
+      <c r="E377" s="128"/>
+      <c r="F377" s="128"/>
+      <c r="G377" s="128"/>
+      <c r="H377" s="128"/>
       <c r="J377" s="58" t="s">
         <v>272</v>
       </c>
@@ -8093,15 +8139,15 @@
     </row>
     <row r="390" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="58"/>
-      <c r="B390" s="122" t="s">
+      <c r="B390" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="C390" s="122"/>
-      <c r="D390" s="122"/>
-      <c r="E390" s="122"/>
-      <c r="F390" s="122"/>
-      <c r="G390" s="122"/>
-      <c r="H390" s="122"/>
+      <c r="C390" s="123"/>
+      <c r="D390" s="123"/>
+      <c r="E390" s="123"/>
+      <c r="F390" s="123"/>
+      <c r="G390" s="123"/>
+      <c r="H390" s="123"/>
       <c r="J390" t="s">
         <v>65</v>
       </c>
@@ -8158,15 +8204,15 @@
       <c r="O394" s="42"/>
     </row>
     <row r="395" spans="1:23" s="16" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B395" s="127" t="s">
+      <c r="B395" s="128" t="s">
         <v>219</v>
       </c>
-      <c r="C395" s="127"/>
-      <c r="D395" s="127"/>
-      <c r="E395" s="127"/>
-      <c r="F395" s="127"/>
-      <c r="G395" s="127"/>
-      <c r="H395" s="127"/>
+      <c r="C395" s="128"/>
+      <c r="D395" s="128"/>
+      <c r="E395" s="128"/>
+      <c r="F395" s="128"/>
+      <c r="G395" s="128"/>
+      <c r="H395" s="128"/>
       <c r="J395" s="58"/>
       <c r="K395" s="60"/>
     </row>
@@ -8175,10 +8221,10 @@
         <v>142</v>
       </c>
       <c r="C396" s="76"/>
-      <c r="D396" s="145" t="s">
+      <c r="D396" s="148" t="s">
         <v>143</v>
       </c>
-      <c r="E396" s="145"/>
+      <c r="E396" s="148"/>
       <c r="F396" s="116" t="s">
         <v>144</v>
       </c>
@@ -8191,10 +8237,10 @@
         <v>138</v>
       </c>
       <c r="C397" s="54"/>
-      <c r="D397" s="126" t="s">
+      <c r="D397" s="127" t="s">
         <v>139</v>
       </c>
-      <c r="E397" s="126"/>
+      <c r="E397" s="127"/>
       <c r="F397" s="117">
         <v>10000000</v>
       </c>
@@ -8208,10 +8254,10 @@
         <v>140</v>
       </c>
       <c r="C398" s="54"/>
-      <c r="D398" s="126" t="s">
+      <c r="D398" s="127" t="s">
         <v>141</v>
       </c>
-      <c r="E398" s="126"/>
+      <c r="E398" s="127"/>
       <c r="F398" s="117">
         <v>20000000</v>
       </c>
@@ -8281,15 +8327,15 @@
     </row>
     <row r="402" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="1"/>
-      <c r="B402" s="129" t="s">
+      <c r="B402" s="131" t="s">
         <v>203</v>
       </c>
-      <c r="C402" s="129"/>
-      <c r="D402" s="129"/>
-      <c r="E402" s="129"/>
-      <c r="F402" s="129"/>
-      <c r="G402" s="129"/>
-      <c r="H402" s="129"/>
+      <c r="C402" s="131"/>
+      <c r="D402" s="131"/>
+      <c r="E402" s="131"/>
+      <c r="F402" s="131"/>
+      <c r="G402" s="131"/>
+      <c r="H402" s="131"/>
       <c r="O402" s="65"/>
       <c r="P402" s="35"/>
       <c r="Q402" s="35"/>
@@ -8298,36 +8344,36 @@
     </row>
     <row r="403" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="1"/>
-      <c r="B403" s="129"/>
-      <c r="C403" s="129"/>
-      <c r="D403" s="129"/>
-      <c r="E403" s="129"/>
-      <c r="F403" s="129"/>
-      <c r="G403" s="129"/>
-      <c r="H403" s="129"/>
+      <c r="B403" s="131"/>
+      <c r="C403" s="131"/>
+      <c r="D403" s="131"/>
+      <c r="E403" s="131"/>
+      <c r="F403" s="131"/>
+      <c r="G403" s="131"/>
+      <c r="H403" s="131"/>
       <c r="O403" s="65"/>
     </row>
     <row r="404" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="1"/>
-      <c r="B404" s="129"/>
-      <c r="C404" s="129"/>
-      <c r="D404" s="129"/>
-      <c r="E404" s="129"/>
-      <c r="F404" s="129"/>
-      <c r="G404" s="129"/>
-      <c r="H404" s="129"/>
+      <c r="B404" s="131"/>
+      <c r="C404" s="131"/>
+      <c r="D404" s="131"/>
+      <c r="E404" s="131"/>
+      <c r="F404" s="131"/>
+      <c r="G404" s="131"/>
+      <c r="H404" s="131"/>
       <c r="O404" s="65"/>
       <c r="R404" s="34"/>
     </row>
     <row r="405" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="1"/>
-      <c r="B405" s="129"/>
-      <c r="C405" s="129"/>
-      <c r="D405" s="129"/>
-      <c r="E405" s="129"/>
-      <c r="F405" s="129"/>
-      <c r="G405" s="129"/>
-      <c r="H405" s="129"/>
+      <c r="B405" s="131"/>
+      <c r="C405" s="131"/>
+      <c r="D405" s="131"/>
+      <c r="E405" s="131"/>
+      <c r="F405" s="131"/>
+      <c r="G405" s="131"/>
+      <c r="H405" s="131"/>
       <c r="O405" s="65"/>
       <c r="P405" s="16"/>
       <c r="Q405" s="16"/>
@@ -8371,35 +8417,35 @@
       <c r="O407" s="42"/>
     </row>
     <row r="408" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B408" s="129" t="s">
+      <c r="B408" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="C408" s="129"/>
-      <c r="D408" s="129"/>
-      <c r="E408" s="129"/>
-      <c r="F408" s="129"/>
-      <c r="G408" s="129"/>
-      <c r="H408" s="129"/>
+      <c r="C408" s="131"/>
+      <c r="D408" s="131"/>
+      <c r="E408" s="131"/>
+      <c r="F408" s="131"/>
+      <c r="G408" s="131"/>
+      <c r="H408" s="131"/>
     </row>
     <row r="409" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B409" s="129"/>
-      <c r="C409" s="129"/>
-      <c r="D409" s="129"/>
-      <c r="E409" s="129"/>
-      <c r="F409" s="129"/>
-      <c r="G409" s="129"/>
-      <c r="H409" s="129"/>
+      <c r="B409" s="131"/>
+      <c r="C409" s="131"/>
+      <c r="D409" s="131"/>
+      <c r="E409" s="131"/>
+      <c r="F409" s="131"/>
+      <c r="G409" s="131"/>
+      <c r="H409" s="131"/>
     </row>
     <row r="410" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B410" s="128" t="s">
+      <c r="B410" s="135" t="s">
+        <v>283</v>
+      </c>
+      <c r="C410" s="136"/>
+      <c r="D410" s="129"/>
+      <c r="E410" s="129"/>
+      <c r="F410" s="129"/>
+      <c r="G410" s="129" t="s">
         <v>279</v>
-      </c>
-      <c r="C410" s="128"/>
-      <c r="D410" s="133"/>
-      <c r="E410" s="133"/>
-      <c r="F410" s="133"/>
-      <c r="G410" s="128" t="s">
-        <v>280</v>
       </c>
       <c r="H410" s="25"/>
       <c r="K410" s="58"/>
@@ -8409,12 +8455,12 @@
       <c r="O410" s="114"/>
     </row>
     <row r="411" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B411" s="128"/>
-      <c r="C411" s="128"/>
-      <c r="D411" s="134"/>
-      <c r="E411" s="134"/>
-      <c r="F411" s="134"/>
-      <c r="G411" s="128"/>
+      <c r="B411" s="137"/>
+      <c r="C411" s="138"/>
+      <c r="D411" s="130"/>
+      <c r="E411" s="130"/>
+      <c r="F411" s="130"/>
+      <c r="G411" s="130"/>
       <c r="H411" s="25"/>
       <c r="K411" s="58"/>
       <c r="L411" s="58"/>
@@ -8423,8 +8469,8 @@
       <c r="O411" s="114"/>
     </row>
     <row r="412" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B412" s="130"/>
-      <c r="C412" s="130"/>
+      <c r="B412" s="132"/>
+      <c r="C412" s="132"/>
       <c r="D412" s="119"/>
       <c r="E412" s="119"/>
       <c r="F412" s="119"/>
@@ -8437,8 +8483,8 @@
       <c r="O412" s="114"/>
     </row>
     <row r="413" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B413" s="131"/>
-      <c r="C413" s="132"/>
+      <c r="B413" s="133"/>
+      <c r="C413" s="134"/>
       <c r="D413" s="118"/>
       <c r="E413" s="118"/>
       <c r="F413" s="118"/>
@@ -8451,8 +8497,8 @@
       <c r="O413" s="114"/>
     </row>
     <row r="414" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B414" s="131"/>
-      <c r="C414" s="132"/>
+      <c r="B414" s="133"/>
+      <c r="C414" s="134"/>
       <c r="D414" s="118"/>
       <c r="E414" s="118"/>
       <c r="F414" s="118"/>
@@ -8465,8 +8511,8 @@
       <c r="O414" s="114"/>
     </row>
     <row r="415" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B415" s="131"/>
-      <c r="C415" s="132"/>
+      <c r="B415" s="133"/>
+      <c r="C415" s="134"/>
       <c r="D415" s="118"/>
       <c r="E415" s="118"/>
       <c r="F415" s="118"/>
@@ -8479,8 +8525,8 @@
       <c r="O415" s="114"/>
     </row>
     <row r="416" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B416" s="131"/>
-      <c r="C416" s="132"/>
+      <c r="B416" s="133"/>
+      <c r="C416" s="134"/>
       <c r="D416" s="118"/>
       <c r="E416" s="118"/>
       <c r="F416" s="118"/>
@@ -8493,10 +8539,10 @@
       <c r="O416" s="114"/>
     </row>
     <row r="417" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B417" s="130" t="s">
-        <v>281</v>
-      </c>
-      <c r="C417" s="130"/>
+      <c r="B417" s="132" t="s">
+        <v>280</v>
+      </c>
+      <c r="C417" s="132"/>
       <c r="D417" s="120"/>
       <c r="E417" s="118"/>
       <c r="F417" s="118"/>
@@ -8509,13 +8555,13 @@
       <c r="O417" s="114"/>
     </row>
     <row r="418" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B418" s="123" t="s">
-        <v>282</v>
-      </c>
-      <c r="C418" s="124"/>
-      <c r="D418" s="124"/>
-      <c r="E418" s="124"/>
-      <c r="F418" s="125"/>
+      <c r="B418" s="124" t="s">
+        <v>281</v>
+      </c>
+      <c r="C418" s="125"/>
+      <c r="D418" s="125"/>
+      <c r="E418" s="125"/>
+      <c r="F418" s="126"/>
       <c r="G418" s="119"/>
       <c r="H418" s="25"/>
       <c r="K418" s="58"/>
@@ -8525,13 +8571,13 @@
       <c r="O418" s="114"/>
     </row>
     <row r="419" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B419" s="123" t="s">
-        <v>283</v>
-      </c>
-      <c r="C419" s="124"/>
-      <c r="D419" s="124"/>
-      <c r="E419" s="124"/>
-      <c r="F419" s="125"/>
+      <c r="B419" s="124" t="s">
+        <v>282</v>
+      </c>
+      <c r="C419" s="125"/>
+      <c r="D419" s="125"/>
+      <c r="E419" s="125"/>
+      <c r="F419" s="126"/>
       <c r="G419" s="119"/>
       <c r="H419" s="25"/>
       <c r="K419" s="58"/>
@@ -8583,26 +8629,26 @@
       <c r="O422" s="65"/>
     </row>
     <row r="423" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B423" s="129" t="s">
+      <c r="B423" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="C423" s="129"/>
-      <c r="D423" s="129"/>
-      <c r="E423" s="129"/>
-      <c r="F423" s="129"/>
-      <c r="G423" s="129"/>
-      <c r="H423" s="129"/>
+      <c r="C423" s="131"/>
+      <c r="D423" s="131"/>
+      <c r="E423" s="131"/>
+      <c r="F423" s="131"/>
+      <c r="G423" s="131"/>
+      <c r="H423" s="131"/>
       <c r="O423" s="65"/>
     </row>
     <row r="424" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A424" s="46"/>
-      <c r="B424" s="129"/>
-      <c r="C424" s="129"/>
-      <c r="D424" s="129"/>
-      <c r="E424" s="129"/>
-      <c r="F424" s="129"/>
-      <c r="G424" s="129"/>
-      <c r="H424" s="129"/>
+      <c r="B424" s="131"/>
+      <c r="C424" s="131"/>
+      <c r="D424" s="131"/>
+      <c r="E424" s="131"/>
+      <c r="F424" s="131"/>
+      <c r="G424" s="131"/>
+      <c r="H424" s="131"/>
       <c r="O424" s="65"/>
     </row>
     <row r="425" spans="1:15" x14ac:dyDescent="0.25">
@@ -8770,7 +8816,9 @@
       <c r="J437" s="45"/>
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B438" s="35"/>
+      <c r="B438" s="35" t="s">
+        <v>284</v>
+      </c>
       <c r="J438" s="45"/>
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.25">
@@ -8843,7 +8891,7 @@
       </c>
       <c r="F450" s="115">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45357</v>
       </c>
       <c r="J450" s="45"/>
     </row>
@@ -8864,347 +8912,347 @@
       <c r="A453" s="28">
         <v>1</v>
       </c>
-      <c r="B453" s="135" t="s">
+      <c r="B453" s="139" t="s">
         <v>162</v>
       </c>
-      <c r="C453" s="135"/>
-      <c r="D453" s="135"/>
-      <c r="E453" s="135"/>
-      <c r="F453" s="135"/>
-      <c r="G453" s="135"/>
-      <c r="H453" s="135"/>
+      <c r="C453" s="139"/>
+      <c r="D453" s="139"/>
+      <c r="E453" s="139"/>
+      <c r="F453" s="139"/>
+      <c r="G453" s="139"/>
+      <c r="H453" s="139"/>
     </row>
     <row r="454" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="28">
         <v>2</v>
       </c>
-      <c r="B454" s="135" t="s">
+      <c r="B454" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="C454" s="135"/>
-      <c r="D454" s="135"/>
-      <c r="E454" s="135"/>
-      <c r="F454" s="135"/>
-      <c r="G454" s="135"/>
-      <c r="H454" s="135"/>
+      <c r="C454" s="139"/>
+      <c r="D454" s="139"/>
+      <c r="E454" s="139"/>
+      <c r="F454" s="139"/>
+      <c r="G454" s="139"/>
+      <c r="H454" s="139"/>
     </row>
     <row r="455" spans="1:14" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="28">
         <v>3</v>
       </c>
-      <c r="B455" s="135" t="s">
+      <c r="B455" s="139" t="s">
         <v>164</v>
       </c>
-      <c r="C455" s="135"/>
-      <c r="D455" s="135"/>
-      <c r="E455" s="135"/>
-      <c r="F455" s="135"/>
-      <c r="G455" s="135"/>
-      <c r="H455" s="135"/>
+      <c r="C455" s="139"/>
+      <c r="D455" s="139"/>
+      <c r="E455" s="139"/>
+      <c r="F455" s="139"/>
+      <c r="G455" s="139"/>
+      <c r="H455" s="139"/>
     </row>
     <row r="456" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="28">
         <v>4</v>
       </c>
-      <c r="B456" s="135" t="s">
+      <c r="B456" s="139" t="s">
         <v>165</v>
       </c>
-      <c r="C456" s="135"/>
-      <c r="D456" s="135"/>
-      <c r="E456" s="135"/>
-      <c r="F456" s="135"/>
-      <c r="G456" s="135"/>
-      <c r="H456" s="135"/>
+      <c r="C456" s="139"/>
+      <c r="D456" s="139"/>
+      <c r="E456" s="139"/>
+      <c r="F456" s="139"/>
+      <c r="G456" s="139"/>
+      <c r="H456" s="139"/>
     </row>
     <row r="457" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="28">
         <v>5</v>
       </c>
-      <c r="B457" s="135" t="s">
+      <c r="B457" s="139" t="s">
         <v>166</v>
       </c>
-      <c r="C457" s="135"/>
-      <c r="D457" s="135"/>
-      <c r="E457" s="135"/>
-      <c r="F457" s="135"/>
-      <c r="G457" s="135"/>
-      <c r="H457" s="135"/>
+      <c r="C457" s="139"/>
+      <c r="D457" s="139"/>
+      <c r="E457" s="139"/>
+      <c r="F457" s="139"/>
+      <c r="G457" s="139"/>
+      <c r="H457" s="139"/>
     </row>
     <row r="458" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="28"/>
-      <c r="B458" s="135" t="s">
+      <c r="B458" s="139" t="s">
         <v>167</v>
       </c>
-      <c r="C458" s="135"/>
-      <c r="D458" s="135"/>
-      <c r="E458" s="135"/>
-      <c r="F458" s="135"/>
-      <c r="G458" s="135"/>
-      <c r="H458" s="135"/>
+      <c r="C458" s="139"/>
+      <c r="D458" s="139"/>
+      <c r="E458" s="139"/>
+      <c r="F458" s="139"/>
+      <c r="G458" s="139"/>
+      <c r="H458" s="139"/>
     </row>
     <row r="459" spans="1:14" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="28"/>
-      <c r="B459" s="135" t="s">
+      <c r="B459" s="139" t="s">
         <v>168</v>
       </c>
-      <c r="C459" s="135"/>
-      <c r="D459" s="135"/>
-      <c r="E459" s="135"/>
-      <c r="F459" s="135"/>
-      <c r="G459" s="135"/>
-      <c r="H459" s="135"/>
+      <c r="C459" s="139"/>
+      <c r="D459" s="139"/>
+      <c r="E459" s="139"/>
+      <c r="F459" s="139"/>
+      <c r="G459" s="139"/>
+      <c r="H459" s="139"/>
     </row>
     <row r="460" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="28"/>
-      <c r="B460" s="135" t="s">
+      <c r="B460" s="139" t="s">
         <v>169</v>
       </c>
-      <c r="C460" s="135"/>
-      <c r="D460" s="135"/>
-      <c r="E460" s="135"/>
-      <c r="F460" s="135"/>
-      <c r="G460" s="135"/>
-      <c r="H460" s="135"/>
+      <c r="C460" s="139"/>
+      <c r="D460" s="139"/>
+      <c r="E460" s="139"/>
+      <c r="F460" s="139"/>
+      <c r="G460" s="139"/>
+      <c r="H460" s="139"/>
     </row>
     <row r="461" spans="1:14" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="28">
         <v>6</v>
       </c>
-      <c r="B461" s="135" t="s">
+      <c r="B461" s="139" t="s">
         <v>170</v>
       </c>
-      <c r="C461" s="135"/>
-      <c r="D461" s="135"/>
-      <c r="E461" s="135"/>
-      <c r="F461" s="135"/>
-      <c r="G461" s="135"/>
-      <c r="H461" s="135"/>
+      <c r="C461" s="139"/>
+      <c r="D461" s="139"/>
+      <c r="E461" s="139"/>
+      <c r="F461" s="139"/>
+      <c r="G461" s="139"/>
+      <c r="H461" s="139"/>
     </row>
     <row r="462" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="28"/>
-      <c r="B462" s="135" t="s">
+      <c r="B462" s="139" t="s">
         <v>171</v>
       </c>
-      <c r="C462" s="135"/>
-      <c r="D462" s="135"/>
-      <c r="E462" s="135"/>
-      <c r="F462" s="135"/>
-      <c r="G462" s="135"/>
-      <c r="H462" s="135"/>
+      <c r="C462" s="139"/>
+      <c r="D462" s="139"/>
+      <c r="E462" s="139"/>
+      <c r="F462" s="139"/>
+      <c r="G462" s="139"/>
+      <c r="H462" s="139"/>
     </row>
     <row r="463" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="28"/>
-      <c r="B463" s="135" t="s">
+      <c r="B463" s="139" t="s">
         <v>172</v>
       </c>
-      <c r="C463" s="135"/>
-      <c r="D463" s="135"/>
-      <c r="E463" s="135"/>
-      <c r="F463" s="135"/>
-      <c r="G463" s="135"/>
-      <c r="H463" s="135"/>
+      <c r="C463" s="139"/>
+      <c r="D463" s="139"/>
+      <c r="E463" s="139"/>
+      <c r="F463" s="139"/>
+      <c r="G463" s="139"/>
+      <c r="H463" s="139"/>
     </row>
     <row r="464" spans="1:14" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="28">
         <v>7</v>
       </c>
-      <c r="B464" s="135" t="s">
+      <c r="B464" s="139" t="s">
         <v>173</v>
       </c>
-      <c r="C464" s="135"/>
-      <c r="D464" s="135"/>
-      <c r="E464" s="135"/>
-      <c r="F464" s="135"/>
-      <c r="G464" s="135"/>
-      <c r="H464" s="135"/>
+      <c r="C464" s="139"/>
+      <c r="D464" s="139"/>
+      <c r="E464" s="139"/>
+      <c r="F464" s="139"/>
+      <c r="G464" s="139"/>
+      <c r="H464" s="139"/>
     </row>
     <row r="465" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="28">
         <v>8</v>
       </c>
-      <c r="B465" s="135" t="s">
+      <c r="B465" s="139" t="s">
         <v>174</v>
       </c>
-      <c r="C465" s="135"/>
-      <c r="D465" s="135"/>
-      <c r="E465" s="135"/>
-      <c r="F465" s="135"/>
-      <c r="G465" s="135"/>
-      <c r="H465" s="135"/>
+      <c r="C465" s="139"/>
+      <c r="D465" s="139"/>
+      <c r="E465" s="139"/>
+      <c r="F465" s="139"/>
+      <c r="G465" s="139"/>
+      <c r="H465" s="139"/>
     </row>
     <row r="466" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="28"/>
-      <c r="B466" s="135" t="s">
+      <c r="B466" s="139" t="s">
         <v>175</v>
       </c>
-      <c r="C466" s="135"/>
-      <c r="D466" s="135"/>
-      <c r="E466" s="135"/>
-      <c r="F466" s="135"/>
-      <c r="G466" s="135"/>
-      <c r="H466" s="135"/>
+      <c r="C466" s="139"/>
+      <c r="D466" s="139"/>
+      <c r="E466" s="139"/>
+      <c r="F466" s="139"/>
+      <c r="G466" s="139"/>
+      <c r="H466" s="139"/>
     </row>
     <row r="467" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="28"/>
-      <c r="B467" s="135" t="s">
+      <c r="B467" s="139" t="s">
         <v>160</v>
       </c>
-      <c r="C467" s="135"/>
-      <c r="D467" s="135"/>
-      <c r="E467" s="135"/>
-      <c r="F467" s="135"/>
-      <c r="G467" s="135"/>
-      <c r="H467" s="135"/>
+      <c r="C467" s="139"/>
+      <c r="D467" s="139"/>
+      <c r="E467" s="139"/>
+      <c r="F467" s="139"/>
+      <c r="G467" s="139"/>
+      <c r="H467" s="139"/>
     </row>
     <row r="468" spans="1:15" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="28"/>
-      <c r="B468" s="135" t="s">
+      <c r="B468" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="C468" s="135"/>
-      <c r="D468" s="135"/>
-      <c r="E468" s="135"/>
-      <c r="F468" s="135"/>
-      <c r="G468" s="135"/>
-      <c r="H468" s="135"/>
+      <c r="C468" s="139"/>
+      <c r="D468" s="139"/>
+      <c r="E468" s="139"/>
+      <c r="F468" s="139"/>
+      <c r="G468" s="139"/>
+      <c r="H468" s="139"/>
     </row>
     <row r="469" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="28"/>
-      <c r="B469" s="135" t="s">
+      <c r="B469" s="139" t="s">
         <v>177</v>
       </c>
-      <c r="C469" s="135"/>
-      <c r="D469" s="135"/>
-      <c r="E469" s="135"/>
-      <c r="F469" s="135"/>
-      <c r="G469" s="135"/>
-      <c r="H469" s="135"/>
+      <c r="C469" s="139"/>
+      <c r="D469" s="139"/>
+      <c r="E469" s="139"/>
+      <c r="F469" s="139"/>
+      <c r="G469" s="139"/>
+      <c r="H469" s="139"/>
     </row>
     <row r="470" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="28"/>
-      <c r="B470" s="135" t="s">
+      <c r="B470" s="139" t="s">
         <v>178</v>
       </c>
-      <c r="C470" s="135"/>
-      <c r="D470" s="135"/>
-      <c r="E470" s="135"/>
-      <c r="F470" s="135"/>
-      <c r="G470" s="135"/>
-      <c r="H470" s="135"/>
+      <c r="C470" s="139"/>
+      <c r="D470" s="139"/>
+      <c r="E470" s="139"/>
+      <c r="F470" s="139"/>
+      <c r="G470" s="139"/>
+      <c r="H470" s="139"/>
     </row>
     <row r="471" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="28"/>
-      <c r="B471" s="135" t="s">
+      <c r="B471" s="139" t="s">
         <v>179</v>
       </c>
-      <c r="C471" s="135"/>
-      <c r="D471" s="135"/>
-      <c r="E471" s="135"/>
-      <c r="F471" s="135"/>
-      <c r="G471" s="135"/>
-      <c r="H471" s="135"/>
+      <c r="C471" s="139"/>
+      <c r="D471" s="139"/>
+      <c r="E471" s="139"/>
+      <c r="F471" s="139"/>
+      <c r="G471" s="139"/>
+      <c r="H471" s="139"/>
     </row>
     <row r="472" spans="1:15" ht="55.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="28">
         <v>9</v>
       </c>
-      <c r="B472" s="135" t="s">
+      <c r="B472" s="139" t="s">
         <v>180</v>
       </c>
-      <c r="C472" s="135"/>
-      <c r="D472" s="135"/>
-      <c r="E472" s="135"/>
-      <c r="F472" s="135"/>
-      <c r="G472" s="135"/>
-      <c r="H472" s="135"/>
+      <c r="C472" s="139"/>
+      <c r="D472" s="139"/>
+      <c r="E472" s="139"/>
+      <c r="F472" s="139"/>
+      <c r="G472" s="139"/>
+      <c r="H472" s="139"/>
     </row>
     <row r="473" spans="1:15" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="28">
         <v>10</v>
       </c>
-      <c r="B473" s="135" t="s">
+      <c r="B473" s="139" t="s">
         <v>181</v>
       </c>
-      <c r="C473" s="135"/>
-      <c r="D473" s="135"/>
-      <c r="E473" s="135"/>
-      <c r="F473" s="135"/>
-      <c r="G473" s="135"/>
-      <c r="H473" s="135"/>
+      <c r="C473" s="139"/>
+      <c r="D473" s="139"/>
+      <c r="E473" s="139"/>
+      <c r="F473" s="139"/>
+      <c r="G473" s="139"/>
+      <c r="H473" s="139"/>
     </row>
     <row r="474" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="28"/>
-      <c r="B474" s="135" t="s">
+      <c r="B474" s="139" t="s">
         <v>182</v>
       </c>
-      <c r="C474" s="135"/>
-      <c r="D474" s="135"/>
-      <c r="E474" s="135"/>
-      <c r="F474" s="135"/>
-      <c r="G474" s="135"/>
-      <c r="H474" s="135"/>
+      <c r="C474" s="139"/>
+      <c r="D474" s="139"/>
+      <c r="E474" s="139"/>
+      <c r="F474" s="139"/>
+      <c r="G474" s="139"/>
+      <c r="H474" s="139"/>
     </row>
     <row r="475" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="28"/>
-      <c r="B475" s="135" t="s">
+      <c r="B475" s="139" t="s">
         <v>183</v>
       </c>
-      <c r="C475" s="135"/>
-      <c r="D475" s="135"/>
-      <c r="E475" s="135"/>
-      <c r="F475" s="135"/>
-      <c r="G475" s="135"/>
-      <c r="H475" s="135"/>
+      <c r="C475" s="139"/>
+      <c r="D475" s="139"/>
+      <c r="E475" s="139"/>
+      <c r="F475" s="139"/>
+      <c r="G475" s="139"/>
+      <c r="H475" s="139"/>
     </row>
     <row r="476" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="28"/>
-      <c r="B476" s="135" t="s">
+      <c r="B476" s="139" t="s">
         <v>184</v>
       </c>
-      <c r="C476" s="135"/>
-      <c r="D476" s="135"/>
-      <c r="E476" s="135"/>
-      <c r="F476" s="135"/>
-      <c r="G476" s="135"/>
-      <c r="H476" s="135"/>
+      <c r="C476" s="139"/>
+      <c r="D476" s="139"/>
+      <c r="E476" s="139"/>
+      <c r="F476" s="139"/>
+      <c r="G476" s="139"/>
+      <c r="H476" s="139"/>
     </row>
     <row r="477" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="28"/>
-      <c r="B477" s="135" t="s">
+      <c r="B477" s="139" t="s">
         <v>159</v>
       </c>
-      <c r="C477" s="135"/>
-      <c r="D477" s="135"/>
-      <c r="E477" s="135"/>
-      <c r="F477" s="135"/>
-      <c r="G477" s="135"/>
-      <c r="H477" s="135"/>
+      <c r="C477" s="139"/>
+      <c r="D477" s="139"/>
+      <c r="E477" s="139"/>
+      <c r="F477" s="139"/>
+      <c r="G477" s="139"/>
+      <c r="H477" s="139"/>
     </row>
     <row r="478" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="28">
         <v>11</v>
       </c>
-      <c r="B478" s="135" t="s">
+      <c r="B478" s="139" t="s">
         <v>185</v>
       </c>
-      <c r="C478" s="135"/>
-      <c r="D478" s="135"/>
-      <c r="E478" s="135"/>
-      <c r="F478" s="135"/>
-      <c r="G478" s="135"/>
-      <c r="H478" s="135"/>
+      <c r="C478" s="139"/>
+      <c r="D478" s="139"/>
+      <c r="E478" s="139"/>
+      <c r="F478" s="139"/>
+      <c r="G478" s="139"/>
+      <c r="H478" s="139"/>
     </row>
     <row r="479" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="28"/>
-      <c r="B479" s="135" t="s">
+      <c r="B479" s="139" t="s">
         <v>186</v>
       </c>
-      <c r="C479" s="135"/>
-      <c r="D479" s="135"/>
-      <c r="E479" s="135"/>
-      <c r="F479" s="135"/>
-      <c r="G479" s="135"/>
-      <c r="H479" s="135"/>
+      <c r="C479" s="139"/>
+      <c r="D479" s="139"/>
+      <c r="E479" s="139"/>
+      <c r="F479" s="139"/>
+      <c r="G479" s="139"/>
+      <c r="H479" s="139"/>
     </row>
     <row r="480" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="28"/>
@@ -9224,219 +9272,219 @@
     </row>
     <row r="481" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="28"/>
-      <c r="B481" s="135" t="s">
+      <c r="B481" s="139" t="s">
         <v>187</v>
       </c>
-      <c r="C481" s="135"/>
-      <c r="D481" s="135"/>
-      <c r="E481" s="135"/>
-      <c r="F481" s="135"/>
-      <c r="G481" s="135"/>
-      <c r="H481" s="135"/>
+      <c r="C481" s="139"/>
+      <c r="D481" s="139"/>
+      <c r="E481" s="139"/>
+      <c r="F481" s="139"/>
+      <c r="G481" s="139"/>
+      <c r="H481" s="139"/>
     </row>
     <row r="482" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="28">
         <v>12</v>
       </c>
-      <c r="B482" s="135" t="s">
+      <c r="B482" s="139" t="s">
         <v>188</v>
       </c>
-      <c r="C482" s="135"/>
-      <c r="D482" s="135"/>
-      <c r="E482" s="135"/>
-      <c r="F482" s="135"/>
-      <c r="G482" s="135"/>
-      <c r="H482" s="135"/>
+      <c r="C482" s="139"/>
+      <c r="D482" s="139"/>
+      <c r="E482" s="139"/>
+      <c r="F482" s="139"/>
+      <c r="G482" s="139"/>
+      <c r="H482" s="139"/>
     </row>
     <row r="483" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="28"/>
-      <c r="B483" s="135" t="s">
+      <c r="B483" s="139" t="s">
         <v>189</v>
       </c>
-      <c r="C483" s="135"/>
-      <c r="D483" s="135"/>
-      <c r="E483" s="135"/>
-      <c r="F483" s="135"/>
-      <c r="G483" s="135"/>
-      <c r="H483" s="135"/>
+      <c r="C483" s="139"/>
+      <c r="D483" s="139"/>
+      <c r="E483" s="139"/>
+      <c r="F483" s="139"/>
+      <c r="G483" s="139"/>
+      <c r="H483" s="139"/>
     </row>
     <row r="484" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="28"/>
-      <c r="B484" s="135" t="s">
+      <c r="B484" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="C484" s="135"/>
-      <c r="D484" s="135"/>
-      <c r="E484" s="135"/>
-      <c r="F484" s="135"/>
-      <c r="G484" s="135"/>
-      <c r="H484" s="135"/>
+      <c r="C484" s="139"/>
+      <c r="D484" s="139"/>
+      <c r="E484" s="139"/>
+      <c r="F484" s="139"/>
+      <c r="G484" s="139"/>
+      <c r="H484" s="139"/>
     </row>
     <row r="485" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="28"/>
-      <c r="B485" s="135" t="s">
+      <c r="B485" s="139" t="s">
         <v>191</v>
       </c>
-      <c r="C485" s="135"/>
-      <c r="D485" s="135"/>
-      <c r="E485" s="135"/>
-      <c r="F485" s="135"/>
-      <c r="G485" s="135"/>
-      <c r="H485" s="135"/>
+      <c r="C485" s="139"/>
+      <c r="D485" s="139"/>
+      <c r="E485" s="139"/>
+      <c r="F485" s="139"/>
+      <c r="G485" s="139"/>
+      <c r="H485" s="139"/>
     </row>
     <row r="486" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="28"/>
-      <c r="B486" s="135" t="s">
+      <c r="B486" s="139" t="s">
         <v>192</v>
       </c>
-      <c r="C486" s="135"/>
-      <c r="D486" s="135"/>
-      <c r="E486" s="135"/>
-      <c r="F486" s="135"/>
-      <c r="G486" s="135"/>
-      <c r="H486" s="135"/>
+      <c r="C486" s="139"/>
+      <c r="D486" s="139"/>
+      <c r="E486" s="139"/>
+      <c r="F486" s="139"/>
+      <c r="G486" s="139"/>
+      <c r="H486" s="139"/>
     </row>
     <row r="487" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="28">
         <v>13</v>
       </c>
-      <c r="B487" s="135" t="s">
+      <c r="B487" s="139" t="s">
         <v>192</v>
       </c>
-      <c r="C487" s="135"/>
-      <c r="D487" s="135"/>
-      <c r="E487" s="135"/>
-      <c r="F487" s="135"/>
-      <c r="G487" s="135"/>
-      <c r="H487" s="135"/>
+      <c r="C487" s="139"/>
+      <c r="D487" s="139"/>
+      <c r="E487" s="139"/>
+      <c r="F487" s="139"/>
+      <c r="G487" s="139"/>
+      <c r="H487" s="139"/>
     </row>
     <row r="488" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="28"/>
-      <c r="B488" s="135" t="s">
+      <c r="B488" s="139" t="s">
         <v>193</v>
       </c>
-      <c r="C488" s="135"/>
-      <c r="D488" s="135"/>
-      <c r="E488" s="135"/>
-      <c r="F488" s="135"/>
-      <c r="G488" s="135"/>
-      <c r="H488" s="135"/>
+      <c r="C488" s="139"/>
+      <c r="D488" s="139"/>
+      <c r="E488" s="139"/>
+      <c r="F488" s="139"/>
+      <c r="G488" s="139"/>
+      <c r="H488" s="139"/>
     </row>
     <row r="489" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="28"/>
-      <c r="B489" s="135" t="s">
+      <c r="B489" s="139" t="s">
         <v>194</v>
       </c>
-      <c r="C489" s="135"/>
-      <c r="D489" s="135"/>
-      <c r="E489" s="135"/>
-      <c r="F489" s="135"/>
-      <c r="G489" s="135"/>
-      <c r="H489" s="135"/>
+      <c r="C489" s="139"/>
+      <c r="D489" s="139"/>
+      <c r="E489" s="139"/>
+      <c r="F489" s="139"/>
+      <c r="G489" s="139"/>
+      <c r="H489" s="139"/>
     </row>
     <row r="490" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="28">
         <v>14</v>
       </c>
-      <c r="B490" s="135" t="s">
+      <c r="B490" s="139" t="s">
         <v>195</v>
       </c>
-      <c r="C490" s="135"/>
-      <c r="D490" s="135"/>
-      <c r="E490" s="135"/>
-      <c r="F490" s="135"/>
-      <c r="G490" s="135"/>
-      <c r="H490" s="135"/>
+      <c r="C490" s="139"/>
+      <c r="D490" s="139"/>
+      <c r="E490" s="139"/>
+      <c r="F490" s="139"/>
+      <c r="G490" s="139"/>
+      <c r="H490" s="139"/>
     </row>
     <row r="491" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="28"/>
-      <c r="B491" s="135" t="s">
+      <c r="B491" s="139" t="s">
         <v>196</v>
       </c>
-      <c r="C491" s="135"/>
-      <c r="D491" s="135"/>
-      <c r="E491" s="135"/>
-      <c r="F491" s="135"/>
-      <c r="G491" s="135"/>
-      <c r="H491" s="135"/>
+      <c r="C491" s="139"/>
+      <c r="D491" s="139"/>
+      <c r="E491" s="139"/>
+      <c r="F491" s="139"/>
+      <c r="G491" s="139"/>
+      <c r="H491" s="139"/>
     </row>
     <row r="492" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="28"/>
-      <c r="B492" s="135" t="s">
+      <c r="B492" s="139" t="s">
         <v>161</v>
       </c>
-      <c r="C492" s="135"/>
-      <c r="D492" s="135"/>
-      <c r="E492" s="135"/>
-      <c r="F492" s="135"/>
-      <c r="G492" s="135"/>
-      <c r="H492" s="135"/>
+      <c r="C492" s="139"/>
+      <c r="D492" s="139"/>
+      <c r="E492" s="139"/>
+      <c r="F492" s="139"/>
+      <c r="G492" s="139"/>
+      <c r="H492" s="139"/>
     </row>
     <row r="493" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="28"/>
-      <c r="B493" s="135" t="s">
+      <c r="B493" s="139" t="s">
         <v>197</v>
       </c>
-      <c r="C493" s="135"/>
-      <c r="D493" s="135"/>
-      <c r="E493" s="135"/>
-      <c r="F493" s="135"/>
-      <c r="G493" s="135"/>
-      <c r="H493" s="135"/>
+      <c r="C493" s="139"/>
+      <c r="D493" s="139"/>
+      <c r="E493" s="139"/>
+      <c r="F493" s="139"/>
+      <c r="G493" s="139"/>
+      <c r="H493" s="139"/>
     </row>
     <row r="494" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="28"/>
-      <c r="B494" s="135" t="s">
+      <c r="B494" s="139" t="s">
         <v>198</v>
       </c>
-      <c r="C494" s="135"/>
-      <c r="D494" s="135"/>
-      <c r="E494" s="135"/>
-      <c r="F494" s="135"/>
-      <c r="G494" s="135"/>
-      <c r="H494" s="135"/>
+      <c r="C494" s="139"/>
+      <c r="D494" s="139"/>
+      <c r="E494" s="139"/>
+      <c r="F494" s="139"/>
+      <c r="G494" s="139"/>
+      <c r="H494" s="139"/>
     </row>
     <row r="495" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="28">
         <v>15</v>
       </c>
-      <c r="B495" s="135" t="s">
+      <c r="B495" s="139" t="s">
         <v>199</v>
       </c>
-      <c r="C495" s="135"/>
-      <c r="D495" s="135"/>
-      <c r="E495" s="135"/>
-      <c r="F495" s="135"/>
-      <c r="G495" s="135"/>
-      <c r="H495" s="135"/>
+      <c r="C495" s="139"/>
+      <c r="D495" s="139"/>
+      <c r="E495" s="139"/>
+      <c r="F495" s="139"/>
+      <c r="G495" s="139"/>
+      <c r="H495" s="139"/>
     </row>
     <row r="496" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="28">
         <v>16</v>
       </c>
-      <c r="B496" s="135" t="s">
+      <c r="B496" s="139" t="s">
         <v>200</v>
       </c>
-      <c r="C496" s="135"/>
-      <c r="D496" s="135"/>
-      <c r="E496" s="135"/>
-      <c r="F496" s="135"/>
-      <c r="G496" s="135"/>
-      <c r="H496" s="135"/>
+      <c r="C496" s="139"/>
+      <c r="D496" s="139"/>
+      <c r="E496" s="139"/>
+      <c r="F496" s="139"/>
+      <c r="G496" s="139"/>
+      <c r="H496" s="139"/>
     </row>
     <row r="497" spans="1:8" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="28">
         <v>17</v>
       </c>
-      <c r="B497" s="135" t="s">
+      <c r="B497" s="139" t="s">
         <v>201</v>
       </c>
-      <c r="C497" s="135"/>
-      <c r="D497" s="135"/>
-      <c r="E497" s="135"/>
-      <c r="F497" s="135"/>
-      <c r="G497" s="135"/>
-      <c r="H497" s="135"/>
+      <c r="C497" s="139"/>
+      <c r="D497" s="139"/>
+      <c r="E497" s="139"/>
+      <c r="F497" s="139"/>
+      <c r="G497" s="139"/>
+      <c r="H497" s="139"/>
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="52"/>
@@ -9455,7 +9503,6 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="B412:C412"/>
     <mergeCell ref="J46:K46"/>
     <mergeCell ref="A56:H59"/>
     <mergeCell ref="B377:H377"/>
@@ -9464,7 +9511,10 @@
     <mergeCell ref="B390:H390"/>
     <mergeCell ref="D396:E396"/>
     <mergeCell ref="D397:E397"/>
-    <mergeCell ref="F410:F411"/>
+    <mergeCell ref="B64:H64"/>
+    <mergeCell ref="B363:H366"/>
+    <mergeCell ref="A61:H62"/>
+    <mergeCell ref="A68:H69"/>
     <mergeCell ref="L56:S59"/>
     <mergeCell ref="G46:H46"/>
     <mergeCell ref="L330:S330"/>
@@ -9506,7 +9556,6 @@
     <mergeCell ref="B482:H482"/>
     <mergeCell ref="B483:H483"/>
     <mergeCell ref="B484:H484"/>
-    <mergeCell ref="B423:H424"/>
     <mergeCell ref="B471:H471"/>
     <mergeCell ref="B458:H458"/>
     <mergeCell ref="B459:H459"/>
@@ -9521,16 +9570,6 @@
     <mergeCell ref="B468:H468"/>
     <mergeCell ref="B469:H469"/>
     <mergeCell ref="B470:H470"/>
-    <mergeCell ref="B453:H453"/>
-    <mergeCell ref="B454:H454"/>
-    <mergeCell ref="B455:H455"/>
-    <mergeCell ref="B456:H456"/>
-    <mergeCell ref="B457:H457"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B64:H64"/>
-    <mergeCell ref="B363:H366"/>
-    <mergeCell ref="A61:H62"/>
-    <mergeCell ref="A68:H69"/>
     <mergeCell ref="C31:F31"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="F38:H38"/>
@@ -9538,6 +9577,16 @@
     <mergeCell ref="F40:H40"/>
     <mergeCell ref="F41:H41"/>
     <mergeCell ref="F37:H37"/>
+    <mergeCell ref="E410:E411"/>
+    <mergeCell ref="B454:H454"/>
+    <mergeCell ref="B455:H455"/>
+    <mergeCell ref="B456:H456"/>
+    <mergeCell ref="B457:H457"/>
+    <mergeCell ref="B423:H424"/>
+    <mergeCell ref="B453:H453"/>
+    <mergeCell ref="B412:C412"/>
+    <mergeCell ref="F410:F411"/>
+    <mergeCell ref="B27:G29"/>
     <mergeCell ref="G45:H45"/>
     <mergeCell ref="B418:F418"/>
     <mergeCell ref="B419:F419"/>
@@ -9553,7 +9602,6 @@
     <mergeCell ref="B416:C416"/>
     <mergeCell ref="B410:C411"/>
     <mergeCell ref="D410:D411"/>
-    <mergeCell ref="E410:E411"/>
   </mergeCells>
   <conditionalFormatting sqref="B62">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -9637,21 +9685,21 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="187"/>
-      <c r="I3" s="187"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="190"/>
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="187"/>
-      <c r="I4" s="187"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="190"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="27.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="187"/>
-      <c r="I5" s="187"/>
+      <c r="H5" s="190"/>
+      <c r="I5" s="190"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -9667,24 +9715,24 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="190"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H7" s="187"/>
-      <c r="I7" s="187"/>
+      <c r="H7" s="190"/>
+      <c r="I7" s="190"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="190"/>
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H9" s="23">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9707,46 +9755,46 @@
       <c r="A15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="189" t="s">
+      <c r="B15" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="189"/>
-      <c r="D15" s="189"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="192"/>
       <c r="E15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="189" t="s">
+      <c r="F15" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="189"/>
-      <c r="H15" s="189"/>
-      <c r="I15" s="189"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="193" t="s">
+      <c r="B16" s="196" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="194"/>
-      <c r="D16" s="194"/>
-      <c r="F16" s="193" t="s">
+      <c r="C16" s="197"/>
+      <c r="D16" s="197"/>
+      <c r="F16" s="196" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="194"/>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
+      <c r="G16" s="197"/>
+      <c r="H16" s="197"/>
+      <c r="I16" s="197"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="189" t="s">
+      <c r="A18" s="192" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="189"/>
-      <c r="C18" s="189"/>
-      <c r="D18" s="189"/>
-      <c r="E18" s="189"/>
-      <c r="F18" s="189"/>
-      <c r="G18" s="189"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="189"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" s="8"/>
@@ -9760,43 +9808,43 @@
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="192" t="s">
+      <c r="A20" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="192"/>
-      <c r="C20" s="192"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="192"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="192"/>
+      <c r="B20" s="195"/>
+      <c r="C20" s="195"/>
+      <c r="D20" s="195"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="195"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="191" t="s">
+      <c r="A21" s="194" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="191"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
-      <c r="H21" s="191"/>
-      <c r="I21" s="191"/>
+      <c r="B21" s="194"/>
+      <c r="C21" s="194"/>
+      <c r="D21" s="194"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="190" t="s">
+      <c r="A22" s="193" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="190"/>
-      <c r="C22" s="190"/>
-      <c r="D22" s="190"/>
-      <c r="E22" s="190"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="190"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="190"/>
+      <c r="B22" s="193"/>
+      <c r="C22" s="193"/>
+      <c r="D22" s="193"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="193"/>
+      <c r="G22" s="193"/>
+      <c r="H22" s="193"/>
+      <c r="I22" s="193"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -9815,17 +9863,17 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="188" t="s">
+      <c r="A25" s="191" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="188"/>
-      <c r="C25" s="188"/>
-      <c r="D25" s="188"/>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
+      <c r="B25" s="191"/>
+      <c r="C25" s="191"/>
+      <c r="D25" s="191"/>
+      <c r="E25" s="191"/>
+      <c r="F25" s="191"/>
+      <c r="G25" s="191"/>
+      <c r="H25" s="191"/>
+      <c r="I25" s="191"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -9836,257 +9884,257 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="149" t="s">
+      <c r="B28" s="152" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149" t="s">
+      <c r="C28" s="152"/>
+      <c r="D28" s="152" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="149"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="149"/>
-      <c r="F29" s="149"/>
-      <c r="G29" s="149"/>
-      <c r="H29" s="149"/>
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="152"/>
+      <c r="H29" s="152"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="146" t="s">
+      <c r="B30" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="146"/>
-      <c r="D30" s="185" t="s">
+      <c r="C30" s="149"/>
+      <c r="D30" s="188" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="186"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="186"/>
-      <c r="H30" s="186"/>
+      <c r="E30" s="189"/>
+      <c r="F30" s="189"/>
+      <c r="G30" s="189"/>
+      <c r="H30" s="189"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="146"/>
-      <c r="C31" s="146"/>
-      <c r="D31" s="186"/>
-      <c r="E31" s="186"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="186"/>
-      <c r="H31" s="186"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="189"/>
+      <c r="E31" s="189"/>
+      <c r="F31" s="189"/>
+      <c r="G31" s="189"/>
+      <c r="H31" s="189"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="146"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="186"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="189"/>
+      <c r="E32" s="189"/>
+      <c r="F32" s="189"/>
+      <c r="G32" s="189"/>
+      <c r="H32" s="189"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="146" t="s">
+      <c r="B33" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="146"/>
-      <c r="D33" s="185" t="s">
+      <c r="C33" s="149"/>
+      <c r="D33" s="188" t="s">
         <v>24</v>
       </c>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186"/>
+      <c r="E33" s="189"/>
+      <c r="F33" s="189"/>
+      <c r="G33" s="189"/>
+      <c r="H33" s="189"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="146"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
+      <c r="B34" s="149"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="189"/>
+      <c r="E34" s="189"/>
+      <c r="F34" s="189"/>
+      <c r="G34" s="189"/>
+      <c r="H34" s="189"/>
       <c r="K34" s="16"/>
       <c r="L34" s="16"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="146"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149"/>
+      <c r="D35" s="189"/>
+      <c r="E35" s="189"/>
+      <c r="F35" s="189"/>
+      <c r="G35" s="189"/>
+      <c r="H35" s="189"/>
       <c r="K35" s="16"/>
       <c r="L35" s="16"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="146" t="s">
+      <c r="B36" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="146"/>
-      <c r="D36" s="185" t="s">
+      <c r="C36" s="149"/>
+      <c r="D36" s="188" t="s">
         <v>25</v>
       </c>
-      <c r="E36" s="186"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186"/>
+      <c r="E36" s="189"/>
+      <c r="F36" s="189"/>
+      <c r="G36" s="189"/>
+      <c r="H36" s="189"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="146"/>
-      <c r="C37" s="146"/>
-      <c r="D37" s="186"/>
-      <c r="E37" s="186"/>
-      <c r="F37" s="186"/>
-      <c r="G37" s="186"/>
-      <c r="H37" s="186"/>
+      <c r="B37" s="149"/>
+      <c r="C37" s="149"/>
+      <c r="D37" s="189"/>
+      <c r="E37" s="189"/>
+      <c r="F37" s="189"/>
+      <c r="G37" s="189"/>
+      <c r="H37" s="189"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="146"/>
-      <c r="C38" s="146"/>
-      <c r="D38" s="186"/>
-      <c r="E38" s="186"/>
-      <c r="F38" s="186"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="186"/>
+      <c r="B38" s="149"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="189"/>
+      <c r="E38" s="189"/>
+      <c r="F38" s="189"/>
+      <c r="G38" s="189"/>
+      <c r="H38" s="189"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="146" t="s">
+      <c r="B39" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="146"/>
-      <c r="D39" s="185" t="s">
+      <c r="C39" s="149"/>
+      <c r="D39" s="188" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="186"/>
-      <c r="F39" s="186"/>
-      <c r="G39" s="186"/>
-      <c r="H39" s="186"/>
+      <c r="E39" s="189"/>
+      <c r="F39" s="189"/>
+      <c r="G39" s="189"/>
+      <c r="H39" s="189"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="146"/>
-      <c r="C40" s="146"/>
-      <c r="D40" s="186"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="186"/>
-      <c r="H40" s="186"/>
+      <c r="B40" s="149"/>
+      <c r="C40" s="149"/>
+      <c r="D40" s="189"/>
+      <c r="E40" s="189"/>
+      <c r="F40" s="189"/>
+      <c r="G40" s="189"/>
+      <c r="H40" s="189"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="148" t="s">
+      <c r="A44" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="B44" s="148"/>
-      <c r="C44" s="148"/>
-      <c r="D44" s="148"/>
-      <c r="E44" s="148"/>
-      <c r="F44" s="148"/>
-      <c r="G44" s="148"/>
-      <c r="H44" s="148"/>
-      <c r="I44" s="148"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="151"/>
+      <c r="D44" s="151"/>
+      <c r="E44" s="151"/>
+      <c r="F44" s="151"/>
+      <c r="G44" s="151"/>
+      <c r="H44" s="151"/>
+      <c r="I44" s="151"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="148"/>
-      <c r="B45" s="148"/>
-      <c r="C45" s="148"/>
-      <c r="D45" s="148"/>
-      <c r="E45" s="148"/>
-      <c r="F45" s="148"/>
-      <c r="G45" s="148"/>
-      <c r="H45" s="148"/>
-      <c r="I45" s="148"/>
+      <c r="A45" s="151"/>
+      <c r="B45" s="151"/>
+      <c r="C45" s="151"/>
+      <c r="D45" s="151"/>
+      <c r="E45" s="151"/>
+      <c r="F45" s="151"/>
+      <c r="G45" s="151"/>
+      <c r="H45" s="151"/>
+      <c r="I45" s="151"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B47" s="150" t="s">
+      <c r="B47" s="153" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="151"/>
-      <c r="D47" s="150" t="s">
+      <c r="C47" s="154"/>
+      <c r="D47" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="154"/>
-      <c r="F47" s="154"/>
-      <c r="G47" s="154"/>
-      <c r="H47" s="155"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="158"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B48" s="152"/>
-      <c r="C48" s="153"/>
-      <c r="D48" s="156"/>
-      <c r="E48" s="157"/>
-      <c r="F48" s="157"/>
-      <c r="G48" s="157"/>
-      <c r="H48" s="158"/>
+      <c r="B48" s="155"/>
+      <c r="C48" s="156"/>
+      <c r="D48" s="159"/>
+      <c r="E48" s="160"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="161"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B49" s="164" t="s">
+      <c r="B49" s="167" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="165"/>
-      <c r="D49" s="168" t="s">
+      <c r="C49" s="168"/>
+      <c r="D49" s="171" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="169"/>
-      <c r="F49" s="169"/>
-      <c r="G49" s="169"/>
-      <c r="H49" s="170"/>
+      <c r="E49" s="172"/>
+      <c r="F49" s="172"/>
+      <c r="G49" s="172"/>
+      <c r="H49" s="173"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B50" s="166"/>
-      <c r="C50" s="167"/>
-      <c r="D50" s="171"/>
-      <c r="E50" s="172"/>
-      <c r="F50" s="172"/>
-      <c r="G50" s="172"/>
-      <c r="H50" s="173"/>
+      <c r="B50" s="169"/>
+      <c r="C50" s="170"/>
+      <c r="D50" s="174"/>
+      <c r="E50" s="175"/>
+      <c r="F50" s="175"/>
+      <c r="G50" s="175"/>
+      <c r="H50" s="176"/>
     </row>
     <row r="51" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="164" t="s">
+      <c r="B51" s="167" t="s">
         <v>95</v>
       </c>
-      <c r="C51" s="165"/>
-      <c r="D51" s="174" t="s">
+      <c r="C51" s="168"/>
+      <c r="D51" s="177" t="s">
         <v>93</v>
       </c>
-      <c r="E51" s="175"/>
-      <c r="F51" s="175"/>
-      <c r="G51" s="175"/>
-      <c r="H51" s="176"/>
+      <c r="E51" s="178"/>
+      <c r="F51" s="178"/>
+      <c r="G51" s="178"/>
+      <c r="H51" s="179"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B52" s="183"/>
-      <c r="C52" s="184"/>
-      <c r="D52" s="177"/>
-      <c r="E52" s="178"/>
-      <c r="F52" s="178"/>
-      <c r="G52" s="178"/>
-      <c r="H52" s="179"/>
+      <c r="B52" s="186"/>
+      <c r="C52" s="187"/>
+      <c r="D52" s="180"/>
+      <c r="E52" s="181"/>
+      <c r="F52" s="181"/>
+      <c r="G52" s="181"/>
+      <c r="H52" s="182"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="166"/>
-      <c r="C53" s="167"/>
-      <c r="D53" s="180"/>
-      <c r="E53" s="181"/>
-      <c r="F53" s="181"/>
-      <c r="G53" s="181"/>
-      <c r="H53" s="182"/>
+      <c r="B53" s="169"/>
+      <c r="C53" s="170"/>
+      <c r="D53" s="183"/>
+      <c r="E53" s="184"/>
+      <c r="F53" s="184"/>
+      <c r="G53" s="184"/>
+      <c r="H53" s="185"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="162" t="s">
+      <c r="B54" s="165" t="s">
         <v>96</v>
       </c>
-      <c r="C54" s="163"/>
-      <c r="D54" s="159" t="s">
+      <c r="C54" s="166"/>
+      <c r="D54" s="162" t="s">
         <v>98</v>
       </c>
-      <c r="E54" s="160"/>
-      <c r="F54" s="160"/>
-      <c r="G54" s="160"/>
-      <c r="H54" s="161"/>
+      <c r="E54" s="163"/>
+      <c r="F54" s="163"/>
+      <c r="G54" s="163"/>
+      <c r="H54" s="164"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B55" s="17" t="s">
@@ -10124,87 +10172,87 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B61" s="149" t="s">
+      <c r="B61" s="152" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="149"/>
-      <c r="D61" s="149"/>
-      <c r="E61" s="149"/>
-      <c r="F61" s="149" t="s">
+      <c r="C61" s="152"/>
+      <c r="D61" s="152"/>
+      <c r="E61" s="152"/>
+      <c r="F61" s="152" t="s">
         <v>31</v>
       </c>
-      <c r="G61" s="149"/>
-      <c r="H61" s="149"/>
+      <c r="G61" s="152"/>
+      <c r="H61" s="152"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B62" s="149"/>
-      <c r="C62" s="149"/>
-      <c r="D62" s="149"/>
-      <c r="E62" s="149"/>
-      <c r="F62" s="149"/>
-      <c r="G62" s="149"/>
-      <c r="H62" s="149"/>
+      <c r="B62" s="152"/>
+      <c r="C62" s="152"/>
+      <c r="D62" s="152"/>
+      <c r="E62" s="152"/>
+      <c r="F62" s="152"/>
+      <c r="G62" s="152"/>
+      <c r="H62" s="152"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B63" s="146" t="s">
+      <c r="B63" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="C63" s="146"/>
-      <c r="D63" s="146"/>
-      <c r="E63" s="146"/>
-      <c r="F63" s="146" t="s">
+      <c r="C63" s="149"/>
+      <c r="D63" s="149"/>
+      <c r="E63" s="149"/>
+      <c r="F63" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="G63" s="146"/>
-      <c r="H63" s="146"/>
+      <c r="G63" s="149"/>
+      <c r="H63" s="149"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B64" s="146"/>
-      <c r="C64" s="146"/>
-      <c r="D64" s="146"/>
-      <c r="E64" s="146"/>
-      <c r="F64" s="146"/>
-      <c r="G64" s="146"/>
-      <c r="H64" s="146"/>
+      <c r="B64" s="149"/>
+      <c r="C64" s="149"/>
+      <c r="D64" s="149"/>
+      <c r="E64" s="149"/>
+      <c r="F64" s="149"/>
+      <c r="G64" s="149"/>
+      <c r="H64" s="149"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="146" t="s">
+      <c r="B65" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="146"/>
-      <c r="D65" s="146"/>
-      <c r="E65" s="146"/>
-      <c r="F65" s="146" t="s">
+      <c r="C65" s="149"/>
+      <c r="D65" s="149"/>
+      <c r="E65" s="149"/>
+      <c r="F65" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="G65" s="146"/>
-      <c r="H65" s="146"/>
+      <c r="G65" s="149"/>
+      <c r="H65" s="149"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B66" s="146"/>
-      <c r="C66" s="146"/>
-      <c r="D66" s="146"/>
-      <c r="E66" s="146"/>
-      <c r="F66" s="146"/>
-      <c r="G66" s="146"/>
-      <c r="H66" s="146"/>
+      <c r="B66" s="149"/>
+      <c r="C66" s="149"/>
+      <c r="D66" s="149"/>
+      <c r="E66" s="149"/>
+      <c r="F66" s="149"/>
+      <c r="G66" s="149"/>
+      <c r="H66" s="149"/>
     </row>
     <row r="73" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="147" t="s">
+      <c r="A73" s="150" t="s">
         <v>35</v>
       </c>
-      <c r="B73" s="147"/>
-      <c r="C73" s="147"/>
+      <c r="B73" s="150"/>
+      <c r="C73" s="150"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="148"/>
-      <c r="B74" s="148"/>
-      <c r="C74" s="148"/>
+      <c r="A74" s="151"/>
+      <c r="B74" s="151"/>
+      <c r="C74" s="151"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="148"/>
-      <c r="B75" s="148"/>
-      <c r="C75" s="148"/>
+      <c r="A75" s="151"/>
+      <c r="B75" s="151"/>
+      <c r="C75" s="151"/>
     </row>
   </sheetData>
   <mergeCells count="36">
@@ -10362,39 +10410,39 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="195" t="s">
+      <c r="D13" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="195"/>
+      <c r="E13" s="198"/>
       <c r="F13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="196" t="s">
+      <c r="G13" s="199" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
+      <c r="H13" s="199"/>
+      <c r="I13" s="199"/>
       <c r="J13" s="33"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="197" t="s">
+      <c r="D14" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="197"/>
-      <c r="G14" s="198" t="s">
+      <c r="E14" s="200"/>
+      <c r="G14" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="198"/>
-      <c r="I14" s="198"/>
+      <c r="H14" s="201"/>
+      <c r="I14" s="201"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="D15" s="196" t="s">
+      <c r="D15" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="196"/>
-      <c r="F15" s="196"/>
-      <c r="G15" s="196"/>
-      <c r="H15" s="196"/>
+      <c r="E15" s="199"/>
+      <c r="F15" s="199"/>
+      <c r="G15" s="199"/>
+      <c r="H15" s="199"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -10404,265 +10452,265 @@
       <c r="G16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="192"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="192"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="195"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="199" t="s">
+      <c r="B18" s="202" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="199"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
       <c r="J18" s="41"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="200" t="s">
+      <c r="B19" s="203" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="200"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="200"/>
+      <c r="C19" s="203"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
       <c r="J19" s="35"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="200" t="s">
+      <c r="B20" s="203" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="200"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="200"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
       <c r="J20" s="35"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="122" t="s">
+      <c r="B23" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="143"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="201" t="s">
+      <c r="D26" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="202"/>
-      <c r="H26" s="202"/>
-      <c r="I26" s="203"/>
+      <c r="E26" s="205"/>
+      <c r="F26" s="205"/>
+      <c r="G26" s="205"/>
+      <c r="H26" s="205"/>
+      <c r="I26" s="206"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="204" t="s">
+      <c r="C27" s="207" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="207" t="s">
+      <c r="D27" s="210" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="208"/>
-      <c r="F27" s="208"/>
-      <c r="G27" s="208"/>
-      <c r="H27" s="208"/>
-      <c r="I27" s="209"/>
+      <c r="E27" s="211"/>
+      <c r="F27" s="211"/>
+      <c r="G27" s="211"/>
+      <c r="H27" s="211"/>
+      <c r="I27" s="212"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="205"/>
-      <c r="D28" s="210"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="211"/>
+      <c r="C28" s="208"/>
+      <c r="D28" s="213"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="214"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="206"/>
-      <c r="D29" s="212"/>
-      <c r="E29" s="213"/>
-      <c r="F29" s="213"/>
-      <c r="G29" s="213"/>
-      <c r="H29" s="213"/>
-      <c r="I29" s="214"/>
+      <c r="C29" s="209"/>
+      <c r="D29" s="215"/>
+      <c r="E29" s="216"/>
+      <c r="F29" s="216"/>
+      <c r="G29" s="216"/>
+      <c r="H29" s="216"/>
+      <c r="I29" s="217"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="204" t="s">
+      <c r="C30" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="207" t="s">
+      <c r="D30" s="210" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="208"/>
-      <c r="F30" s="208"/>
-      <c r="G30" s="208"/>
-      <c r="H30" s="208"/>
-      <c r="I30" s="209"/>
+      <c r="E30" s="211"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="212"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="205"/>
-      <c r="D31" s="210"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="211"/>
+      <c r="C31" s="208"/>
+      <c r="D31" s="213"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="214"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="206"/>
-      <c r="D32" s="212"/>
-      <c r="E32" s="213"/>
-      <c r="F32" s="213"/>
-      <c r="G32" s="213"/>
-      <c r="H32" s="213"/>
-      <c r="I32" s="214"/>
+      <c r="C32" s="209"/>
+      <c r="D32" s="215"/>
+      <c r="E32" s="216"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="216"/>
+      <c r="H32" s="216"/>
+      <c r="I32" s="217"/>
     </row>
     <row r="33" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="204" t="s">
+      <c r="C33" s="207" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="207" t="s">
+      <c r="D33" s="210" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="208"/>
-      <c r="F33" s="208"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="208"/>
-      <c r="I33" s="209"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="211"/>
+      <c r="G33" s="211"/>
+      <c r="H33" s="211"/>
+      <c r="I33" s="212"/>
     </row>
     <row r="34" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C34" s="205"/>
-      <c r="D34" s="210"/>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="129"/>
-      <c r="H34" s="129"/>
-      <c r="I34" s="211"/>
+      <c r="C34" s="208"/>
+      <c r="D34" s="213"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="214"/>
     </row>
     <row r="35" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C35" s="206"/>
-      <c r="D35" s="212"/>
-      <c r="E35" s="213"/>
-      <c r="F35" s="213"/>
-      <c r="G35" s="213"/>
-      <c r="H35" s="213"/>
-      <c r="I35" s="214"/>
+      <c r="C35" s="209"/>
+      <c r="D35" s="215"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="216"/>
+      <c r="H35" s="216"/>
+      <c r="I35" s="217"/>
     </row>
     <row r="36" spans="3:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="204" t="s">
+      <c r="C36" s="207" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="207" t="s">
+      <c r="D36" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="208"/>
-      <c r="F36" s="208"/>
-      <c r="G36" s="208"/>
-      <c r="H36" s="208"/>
-      <c r="I36" s="209"/>
+      <c r="E36" s="211"/>
+      <c r="F36" s="211"/>
+      <c r="G36" s="211"/>
+      <c r="H36" s="211"/>
+      <c r="I36" s="212"/>
     </row>
     <row r="37" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C37" s="205"/>
-      <c r="D37" s="210"/>
-      <c r="E37" s="129"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="129"/>
-      <c r="H37" s="129"/>
-      <c r="I37" s="211"/>
+      <c r="C37" s="208"/>
+      <c r="D37" s="213"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="214"/>
     </row>
     <row r="38" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="C38" s="206"/>
-      <c r="D38" s="212"/>
-      <c r="E38" s="213"/>
-      <c r="F38" s="213"/>
-      <c r="G38" s="213"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="214"/>
+      <c r="C38" s="209"/>
+      <c r="D38" s="215"/>
+      <c r="E38" s="216"/>
+      <c r="F38" s="216"/>
+      <c r="G38" s="216"/>
+      <c r="H38" s="216"/>
+      <c r="I38" s="217"/>
     </row>
     <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K39" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="143" t="s">
+      <c r="L39" s="146" t="s">
         <v>128</v>
       </c>
-      <c r="M39" s="143"/>
-      <c r="N39" s="143"/>
-      <c r="O39" s="143"/>
-      <c r="P39" s="143"/>
-      <c r="Q39" s="143"/>
-      <c r="R39" s="143"/>
-      <c r="S39" s="143"/>
+      <c r="M39" s="146"/>
+      <c r="N39" s="146"/>
+      <c r="O39" s="146"/>
+      <c r="P39" s="146"/>
+      <c r="Q39" s="146"/>
+      <c r="R39" s="146"/>
+      <c r="S39" s="146"/>
     </row>
     <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="K42" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="143" t="s">
+      <c r="L42" s="146" t="s">
         <v>129</v>
       </c>
-      <c r="M42" s="143"/>
-      <c r="N42" s="143"/>
-      <c r="O42" s="143"/>
-      <c r="P42" s="143"/>
-      <c r="Q42" s="143"/>
-      <c r="R42" s="143"/>
-      <c r="S42" s="143"/>
+      <c r="M42" s="146"/>
+      <c r="N42" s="146"/>
+      <c r="O42" s="146"/>
+      <c r="P42" s="146"/>
+      <c r="Q42" s="146"/>
+      <c r="R42" s="146"/>
+      <c r="S42" s="146"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -10703,157 +10751,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="129" t="s">
+      <c r="C56" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="129"/>
-      <c r="E56" s="129"/>
-      <c r="F56" s="129"/>
-      <c r="G56" s="129"/>
-      <c r="H56" s="129"/>
-      <c r="I56" s="129"/>
-      <c r="J56" s="129"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+      <c r="I56" s="131"/>
+      <c r="J56" s="131"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="201" t="s">
+      <c r="D58" s="204" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="202"/>
-      <c r="F58" s="202"/>
-      <c r="G58" s="202"/>
-      <c r="H58" s="202"/>
-      <c r="I58" s="203"/>
+      <c r="E58" s="205"/>
+      <c r="F58" s="205"/>
+      <c r="G58" s="205"/>
+      <c r="H58" s="205"/>
+      <c r="I58" s="206"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="204" t="s">
+      <c r="C59" s="207" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="207" t="s">
+      <c r="D59" s="210" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="208"/>
-      <c r="F59" s="208"/>
-      <c r="G59" s="208"/>
-      <c r="H59" s="208"/>
-      <c r="I59" s="209"/>
+      <c r="E59" s="211"/>
+      <c r="F59" s="211"/>
+      <c r="G59" s="211"/>
+      <c r="H59" s="211"/>
+      <c r="I59" s="212"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="206"/>
-      <c r="D60" s="212"/>
-      <c r="E60" s="213"/>
-      <c r="F60" s="213"/>
-      <c r="G60" s="213"/>
-      <c r="H60" s="213"/>
-      <c r="I60" s="214"/>
+      <c r="C60" s="209"/>
+      <c r="D60" s="215"/>
+      <c r="E60" s="216"/>
+      <c r="F60" s="216"/>
+      <c r="G60" s="216"/>
+      <c r="H60" s="216"/>
+      <c r="I60" s="217"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="204" t="s">
+      <c r="C61" s="207" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="207" t="s">
+      <c r="D61" s="210" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="208"/>
-      <c r="F61" s="208"/>
-      <c r="G61" s="208"/>
-      <c r="H61" s="208"/>
-      <c r="I61" s="209"/>
+      <c r="E61" s="211"/>
+      <c r="F61" s="211"/>
+      <c r="G61" s="211"/>
+      <c r="H61" s="211"/>
+      <c r="I61" s="212"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="206"/>
-      <c r="D62" s="212"/>
-      <c r="E62" s="213"/>
-      <c r="F62" s="213"/>
-      <c r="G62" s="213"/>
-      <c r="H62" s="213"/>
-      <c r="I62" s="214"/>
+      <c r="C62" s="209"/>
+      <c r="D62" s="215"/>
+      <c r="E62" s="216"/>
+      <c r="F62" s="216"/>
+      <c r="G62" s="216"/>
+      <c r="H62" s="216"/>
+      <c r="I62" s="217"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="204" t="s">
+      <c r="C63" s="207" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="207" t="s">
+      <c r="D63" s="210" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="208"/>
-      <c r="F63" s="208"/>
-      <c r="G63" s="208"/>
-      <c r="H63" s="208"/>
-      <c r="I63" s="209"/>
+      <c r="E63" s="211"/>
+      <c r="F63" s="211"/>
+      <c r="G63" s="211"/>
+      <c r="H63" s="211"/>
+      <c r="I63" s="212"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="206"/>
-      <c r="D64" s="212"/>
-      <c r="E64" s="213"/>
-      <c r="F64" s="213"/>
-      <c r="G64" s="213"/>
-      <c r="H64" s="213"/>
-      <c r="I64" s="214"/>
+      <c r="C64" s="209"/>
+      <c r="D64" s="215"/>
+      <c r="E64" s="216"/>
+      <c r="F64" s="216"/>
+      <c r="G64" s="216"/>
+      <c r="H64" s="216"/>
+      <c r="I64" s="217"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="204" t="s">
+      <c r="C65" s="207" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="207" t="s">
+      <c r="D65" s="210" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="208"/>
-      <c r="F65" s="208"/>
-      <c r="G65" s="208"/>
-      <c r="H65" s="208"/>
-      <c r="I65" s="209"/>
+      <c r="E65" s="211"/>
+      <c r="F65" s="211"/>
+      <c r="G65" s="211"/>
+      <c r="H65" s="211"/>
+      <c r="I65" s="212"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="205"/>
-      <c r="D66" s="210"/>
-      <c r="E66" s="129"/>
-      <c r="F66" s="129"/>
-      <c r="G66" s="129"/>
-      <c r="H66" s="129"/>
-      <c r="I66" s="211"/>
+      <c r="C66" s="208"/>
+      <c r="D66" s="213"/>
+      <c r="E66" s="131"/>
+      <c r="F66" s="131"/>
+      <c r="G66" s="131"/>
+      <c r="H66" s="131"/>
+      <c r="I66" s="214"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="206"/>
-      <c r="D67" s="212"/>
-      <c r="E67" s="213"/>
-      <c r="F67" s="213"/>
-      <c r="G67" s="213"/>
-      <c r="H67" s="213"/>
-      <c r="I67" s="214"/>
+      <c r="C67" s="209"/>
+      <c r="D67" s="215"/>
+      <c r="E67" s="216"/>
+      <c r="F67" s="216"/>
+      <c r="G67" s="216"/>
+      <c r="H67" s="216"/>
+      <c r="I67" s="217"/>
     </row>
     <row r="68" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C68" s="204" t="s">
+      <c r="C68" s="207" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="207" t="s">
+      <c r="D68" s="210" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="208"/>
-      <c r="F68" s="208"/>
-      <c r="G68" s="208"/>
-      <c r="H68" s="208"/>
-      <c r="I68" s="209"/>
+      <c r="E68" s="211"/>
+      <c r="F68" s="211"/>
+      <c r="G68" s="211"/>
+      <c r="H68" s="211"/>
+      <c r="I68" s="212"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="205"/>
-      <c r="D69" s="210"/>
-      <c r="E69" s="129"/>
-      <c r="F69" s="129"/>
-      <c r="G69" s="129"/>
-      <c r="H69" s="129"/>
-      <c r="I69" s="211"/>
+      <c r="C69" s="208"/>
+      <c r="D69" s="213"/>
+      <c r="E69" s="131"/>
+      <c r="F69" s="131"/>
+      <c r="G69" s="131"/>
+      <c r="H69" s="131"/>
+      <c r="I69" s="214"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="206"/>
-      <c r="D70" s="212"/>
-      <c r="E70" s="213"/>
-      <c r="F70" s="213"/>
-      <c r="G70" s="213"/>
-      <c r="H70" s="213"/>
-      <c r="I70" s="214"/>
+      <c r="C70" s="209"/>
+      <c r="D70" s="215"/>
+      <c r="E70" s="216"/>
+      <c r="F70" s="216"/>
+      <c r="G70" s="216"/>
+      <c r="H70" s="216"/>
+      <c r="I70" s="217"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -10864,53 +10912,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="216" t="s">
+      <c r="D74" s="219" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="217"/>
-      <c r="F74" s="217"/>
-      <c r="G74" s="217"/>
-      <c r="H74" s="217"/>
-      <c r="I74" s="218"/>
+      <c r="E74" s="220"/>
+      <c r="F74" s="220"/>
+      <c r="G74" s="220"/>
+      <c r="H74" s="220"/>
+      <c r="I74" s="221"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="219" t="s">
+      <c r="D75" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="220"/>
-      <c r="F75" s="220"/>
-      <c r="G75" s="220"/>
-      <c r="H75" s="220"/>
-      <c r="I75" s="221"/>
+      <c r="E75" s="223"/>
+      <c r="F75" s="223"/>
+      <c r="G75" s="223"/>
+      <c r="H75" s="223"/>
+      <c r="I75" s="224"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="219" t="s">
+      <c r="D76" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="220"/>
-      <c r="F76" s="220"/>
-      <c r="G76" s="220"/>
-      <c r="H76" s="220"/>
-      <c r="I76" s="221"/>
+      <c r="E76" s="223"/>
+      <c r="F76" s="223"/>
+      <c r="G76" s="223"/>
+      <c r="H76" s="223"/>
+      <c r="I76" s="224"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="219" t="s">
+      <c r="D77" s="222" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="220"/>
-      <c r="F77" s="220"/>
-      <c r="G77" s="220"/>
-      <c r="H77" s="220"/>
-      <c r="I77" s="221"/>
+      <c r="E77" s="223"/>
+      <c r="F77" s="223"/>
+      <c r="G77" s="223"/>
+      <c r="H77" s="223"/>
+      <c r="I77" s="224"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -10929,23 +10977,23 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="195" t="s">
+      <c r="C91" s="198" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="195"/>
+      <c r="D91" s="198"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="222">
+      <c r="G91" s="225">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
-      </c>
-      <c r="H91" s="222"/>
-      <c r="I91" s="222"/>
+        <v>45357</v>
+      </c>
+      <c r="H91" s="225"/>
+      <c r="I91" s="225"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="215"/>
-      <c r="H92" s="215"/>
+      <c r="G92" s="218"/>
+      <c r="H92" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -11113,40 +11161,40 @@
       <c r="B13" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="195" t="s">
+      <c r="C13" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="195"/>
+      <c r="D13" s="198"/>
       <c r="E13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="195" t="s">
+      <c r="F13" s="198" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="195"/>
-      <c r="H13" s="195"/>
+      <c r="G13" s="198"/>
+      <c r="H13" s="198"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="197" t="s">
+      <c r="C14" s="200" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="197"/>
-      <c r="F14" s="197" t="s">
+      <c r="D14" s="200"/>
+      <c r="F14" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="197"/>
-      <c r="H14" s="197"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="195" t="s">
+      <c r="C15" s="198" t="s">
         <v>103</v>
       </c>
-      <c r="D15" s="195"/>
-      <c r="E15" s="195"/>
-      <c r="F15" s="195"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="195"/>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="198"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E16" s="32" t="s">
@@ -11155,232 +11203,232 @@
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B17" s="192" t="s">
+      <c r="B17" s="195" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="192"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="192"/>
+      <c r="C17" s="195"/>
+      <c r="D17" s="195"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="195"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B18" s="199" t="s">
+      <c r="B18" s="202" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="199"/>
-      <c r="D18" s="199"/>
-      <c r="E18" s="199"/>
-      <c r="F18" s="199"/>
-      <c r="G18" s="199"/>
-      <c r="H18" s="199"/>
-      <c r="I18" s="199"/>
+      <c r="C18" s="202"/>
+      <c r="D18" s="202"/>
+      <c r="E18" s="202"/>
+      <c r="F18" s="202"/>
+      <c r="G18" s="202"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="202"/>
       <c r="M18" s="1"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B19" s="200" t="s">
+      <c r="B19" s="203" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="200"/>
-      <c r="D19" s="200"/>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="200"/>
+      <c r="C19" s="203"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
+      <c r="H19" s="203"/>
+      <c r="I19" s="203"/>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="200" t="s">
+      <c r="B20" s="203" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="200"/>
-      <c r="D20" s="200"/>
-      <c r="E20" s="200"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="200"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="122" t="s">
+      <c r="B22" s="123" t="s">
         <v>118</v>
       </c>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="122"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="122"/>
-      <c r="I22" s="122"/>
-      <c r="J22" s="122"/>
+      <c r="C22" s="123"/>
+      <c r="D22" s="123"/>
+      <c r="E22" s="123"/>
+      <c r="F22" s="123"/>
+      <c r="G22" s="123"/>
+      <c r="H22" s="123"/>
+      <c r="I22" s="123"/>
+      <c r="J22" s="123"/>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="122" t="s">
+      <c r="B23" s="123" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="122"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="122"/>
-      <c r="F23" s="122"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
-      <c r="J23" s="122"/>
+      <c r="C23" s="123"/>
+      <c r="D23" s="123"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="123"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="143" t="s">
+      <c r="C24" s="146" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="143"/>
-      <c r="J24" s="143"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="146"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="146"/>
     </row>
     <row r="26" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="223" t="s">
+      <c r="D26" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="E26" s="223"/>
-      <c r="F26" s="223"/>
-      <c r="G26" s="223"/>
-      <c r="H26" s="223"/>
-      <c r="I26" s="223"/>
+      <c r="E26" s="226"/>
+      <c r="F26" s="226"/>
+      <c r="G26" s="226"/>
+      <c r="H26" s="226"/>
+      <c r="I26" s="226"/>
     </row>
     <row r="27" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="224" t="s">
+      <c r="C27" s="227" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="225" t="s">
+      <c r="D27" s="228" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="225"/>
-      <c r="F27" s="225"/>
-      <c r="G27" s="225"/>
-      <c r="H27" s="225"/>
-      <c r="I27" s="225"/>
+      <c r="E27" s="228"/>
+      <c r="F27" s="228"/>
+      <c r="G27" s="228"/>
+      <c r="H27" s="228"/>
+      <c r="I27" s="228"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="224"/>
-      <c r="D28" s="225"/>
-      <c r="E28" s="225"/>
-      <c r="F28" s="225"/>
-      <c r="G28" s="225"/>
-      <c r="H28" s="225"/>
-      <c r="I28" s="225"/>
+      <c r="C28" s="227"/>
+      <c r="D28" s="228"/>
+      <c r="E28" s="228"/>
+      <c r="F28" s="228"/>
+      <c r="G28" s="228"/>
+      <c r="H28" s="228"/>
+      <c r="I28" s="228"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="224"/>
-      <c r="D29" s="225"/>
-      <c r="E29" s="225"/>
-      <c r="F29" s="225"/>
-      <c r="G29" s="225"/>
-      <c r="H29" s="225"/>
-      <c r="I29" s="225"/>
+      <c r="C29" s="227"/>
+      <c r="D29" s="228"/>
+      <c r="E29" s="228"/>
+      <c r="F29" s="228"/>
+      <c r="G29" s="228"/>
+      <c r="H29" s="228"/>
+      <c r="I29" s="228"/>
     </row>
     <row r="30" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C30" s="224" t="s">
+      <c r="C30" s="227" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="225" t="s">
+      <c r="D30" s="228" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="225"/>
-      <c r="F30" s="225"/>
-      <c r="G30" s="225"/>
-      <c r="H30" s="225"/>
-      <c r="I30" s="225"/>
+      <c r="E30" s="228"/>
+      <c r="F30" s="228"/>
+      <c r="G30" s="228"/>
+      <c r="H30" s="228"/>
+      <c r="I30" s="228"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C31" s="224"/>
-      <c r="D31" s="225"/>
-      <c r="E31" s="225"/>
-      <c r="F31" s="225"/>
-      <c r="G31" s="225"/>
-      <c r="H31" s="225"/>
-      <c r="I31" s="225"/>
+      <c r="C31" s="227"/>
+      <c r="D31" s="228"/>
+      <c r="E31" s="228"/>
+      <c r="F31" s="228"/>
+      <c r="G31" s="228"/>
+      <c r="H31" s="228"/>
+      <c r="I31" s="228"/>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C32" s="224"/>
-      <c r="D32" s="225"/>
-      <c r="E32" s="225"/>
-      <c r="F32" s="225"/>
-      <c r="G32" s="225"/>
-      <c r="H32" s="225"/>
-      <c r="I32" s="225"/>
+      <c r="C32" s="227"/>
+      <c r="D32" s="228"/>
+      <c r="E32" s="228"/>
+      <c r="F32" s="228"/>
+      <c r="G32" s="228"/>
+      <c r="H32" s="228"/>
+      <c r="I32" s="228"/>
     </row>
     <row r="33" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="224" t="s">
+      <c r="C33" s="227" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="225" t="s">
+      <c r="D33" s="228" t="s">
         <v>25</v>
       </c>
-      <c r="E33" s="225"/>
-      <c r="F33" s="225"/>
-      <c r="G33" s="225"/>
-      <c r="H33" s="225"/>
-      <c r="I33" s="225"/>
+      <c r="E33" s="228"/>
+      <c r="F33" s="228"/>
+      <c r="G33" s="228"/>
+      <c r="H33" s="228"/>
+      <c r="I33" s="228"/>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C34" s="224"/>
-      <c r="D34" s="225"/>
-      <c r="E34" s="225"/>
-      <c r="F34" s="225"/>
-      <c r="G34" s="225"/>
-      <c r="H34" s="225"/>
-      <c r="I34" s="225"/>
+      <c r="C34" s="227"/>
+      <c r="D34" s="228"/>
+      <c r="E34" s="228"/>
+      <c r="F34" s="228"/>
+      <c r="G34" s="228"/>
+      <c r="H34" s="228"/>
+      <c r="I34" s="228"/>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C35" s="224"/>
-      <c r="D35" s="225"/>
-      <c r="E35" s="225"/>
-      <c r="F35" s="225"/>
-      <c r="G35" s="225"/>
-      <c r="H35" s="225"/>
-      <c r="I35" s="225"/>
+      <c r="C35" s="227"/>
+      <c r="D35" s="228"/>
+      <c r="E35" s="228"/>
+      <c r="F35" s="228"/>
+      <c r="G35" s="228"/>
+      <c r="H35" s="228"/>
+      <c r="I35" s="228"/>
     </row>
     <row r="36" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C36" s="224" t="s">
+      <c r="C36" s="227" t="s">
         <v>22</v>
       </c>
-      <c r="D36" s="225" t="s">
+      <c r="D36" s="228" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="225"/>
-      <c r="F36" s="225"/>
-      <c r="G36" s="225"/>
-      <c r="H36" s="225"/>
-      <c r="I36" s="225"/>
+      <c r="E36" s="228"/>
+      <c r="F36" s="228"/>
+      <c r="G36" s="228"/>
+      <c r="H36" s="228"/>
+      <c r="I36" s="228"/>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C37" s="224"/>
-      <c r="D37" s="225"/>
-      <c r="E37" s="225"/>
-      <c r="F37" s="225"/>
-      <c r="G37" s="225"/>
-      <c r="H37" s="225"/>
-      <c r="I37" s="225"/>
+      <c r="C37" s="227"/>
+      <c r="D37" s="228"/>
+      <c r="E37" s="228"/>
+      <c r="F37" s="228"/>
+      <c r="G37" s="228"/>
+      <c r="H37" s="228"/>
+      <c r="I37" s="228"/>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C38" s="224"/>
-      <c r="D38" s="225"/>
-      <c r="E38" s="225"/>
-      <c r="F38" s="225"/>
-      <c r="G38" s="225"/>
-      <c r="H38" s="225"/>
-      <c r="I38" s="225"/>
+      <c r="C38" s="227"/>
+      <c r="D38" s="228"/>
+      <c r="E38" s="228"/>
+      <c r="F38" s="228"/>
+      <c r="G38" s="228"/>
+      <c r="H38" s="228"/>
+      <c r="I38" s="228"/>
     </row>
     <row r="50" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G50" s="34" t="s">
@@ -11421,157 +11469,157 @@
       <c r="B56" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C56" s="129" t="s">
+      <c r="C56" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="D56" s="129"/>
-      <c r="E56" s="129"/>
-      <c r="F56" s="129"/>
-      <c r="G56" s="129"/>
-      <c r="H56" s="129"/>
-      <c r="I56" s="129"/>
-      <c r="J56" s="129"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
+      <c r="F56" s="131"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="131"/>
+      <c r="I56" s="131"/>
+      <c r="J56" s="131"/>
     </row>
     <row r="58" spans="2:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D58" s="223" t="s">
+      <c r="D58" s="226" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="223"/>
-      <c r="F58" s="223"/>
-      <c r="G58" s="223"/>
-      <c r="H58" s="223"/>
-      <c r="I58" s="223"/>
+      <c r="E58" s="226"/>
+      <c r="F58" s="226"/>
+      <c r="G58" s="226"/>
+      <c r="H58" s="226"/>
+      <c r="I58" s="226"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="224" t="s">
+      <c r="C59" s="227" t="s">
         <v>122</v>
       </c>
-      <c r="D59" s="225" t="s">
+      <c r="D59" s="228" t="s">
         <v>106</v>
       </c>
-      <c r="E59" s="225"/>
-      <c r="F59" s="225"/>
-      <c r="G59" s="225"/>
-      <c r="H59" s="225"/>
-      <c r="I59" s="225"/>
+      <c r="E59" s="228"/>
+      <c r="F59" s="228"/>
+      <c r="G59" s="228"/>
+      <c r="H59" s="228"/>
+      <c r="I59" s="228"/>
     </row>
     <row r="60" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C60" s="224"/>
-      <c r="D60" s="225"/>
-      <c r="E60" s="225"/>
-      <c r="F60" s="225"/>
-      <c r="G60" s="225"/>
-      <c r="H60" s="225"/>
-      <c r="I60" s="225"/>
+      <c r="C60" s="227"/>
+      <c r="D60" s="228"/>
+      <c r="E60" s="228"/>
+      <c r="F60" s="228"/>
+      <c r="G60" s="228"/>
+      <c r="H60" s="228"/>
+      <c r="I60" s="228"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C61" s="224" t="s">
+      <c r="C61" s="227" t="s">
         <v>123</v>
       </c>
-      <c r="D61" s="225" t="s">
+      <c r="D61" s="228" t="s">
         <v>107</v>
       </c>
-      <c r="E61" s="225"/>
-      <c r="F61" s="225"/>
-      <c r="G61" s="225"/>
-      <c r="H61" s="225"/>
-      <c r="I61" s="225"/>
+      <c r="E61" s="228"/>
+      <c r="F61" s="228"/>
+      <c r="G61" s="228"/>
+      <c r="H61" s="228"/>
+      <c r="I61" s="228"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C62" s="224"/>
-      <c r="D62" s="225"/>
-      <c r="E62" s="225"/>
-      <c r="F62" s="225"/>
-      <c r="G62" s="225"/>
-      <c r="H62" s="225"/>
-      <c r="I62" s="225"/>
+      <c r="C62" s="227"/>
+      <c r="D62" s="228"/>
+      <c r="E62" s="228"/>
+      <c r="F62" s="228"/>
+      <c r="G62" s="228"/>
+      <c r="H62" s="228"/>
+      <c r="I62" s="228"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C63" s="224" t="s">
+      <c r="C63" s="227" t="s">
         <v>124</v>
       </c>
-      <c r="D63" s="225" t="s">
+      <c r="D63" s="228" t="s">
         <v>108</v>
       </c>
-      <c r="E63" s="225"/>
-      <c r="F63" s="225"/>
-      <c r="G63" s="225"/>
-      <c r="H63" s="225"/>
-      <c r="I63" s="225"/>
+      <c r="E63" s="228"/>
+      <c r="F63" s="228"/>
+      <c r="G63" s="228"/>
+      <c r="H63" s="228"/>
+      <c r="I63" s="228"/>
     </row>
     <row r="64" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="C64" s="224"/>
-      <c r="D64" s="225"/>
-      <c r="E64" s="225"/>
-      <c r="F64" s="225"/>
-      <c r="G64" s="225"/>
-      <c r="H64" s="225"/>
-      <c r="I64" s="225"/>
+      <c r="C64" s="227"/>
+      <c r="D64" s="228"/>
+      <c r="E64" s="228"/>
+      <c r="F64" s="228"/>
+      <c r="G64" s="228"/>
+      <c r="H64" s="228"/>
+      <c r="I64" s="228"/>
     </row>
     <row r="65" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C65" s="224" t="s">
+      <c r="C65" s="227" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="225" t="s">
+      <c r="D65" s="228" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="225"/>
-      <c r="F65" s="225"/>
-      <c r="G65" s="225"/>
-      <c r="H65" s="225"/>
-      <c r="I65" s="225"/>
+      <c r="E65" s="228"/>
+      <c r="F65" s="228"/>
+      <c r="G65" s="228"/>
+      <c r="H65" s="228"/>
+      <c r="I65" s="228"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C66" s="224"/>
-      <c r="D66" s="225"/>
-      <c r="E66" s="225"/>
-      <c r="F66" s="225"/>
-      <c r="G66" s="225"/>
-      <c r="H66" s="225"/>
-      <c r="I66" s="225"/>
+      <c r="C66" s="227"/>
+      <c r="D66" s="228"/>
+      <c r="E66" s="228"/>
+      <c r="F66" s="228"/>
+      <c r="G66" s="228"/>
+      <c r="H66" s="228"/>
+      <c r="I66" s="228"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C67" s="224"/>
-      <c r="D67" s="225"/>
-      <c r="E67" s="225"/>
-      <c r="F67" s="225"/>
-      <c r="G67" s="225"/>
-      <c r="H67" s="225"/>
-      <c r="I67" s="225"/>
+      <c r="C67" s="227"/>
+      <c r="D67" s="228"/>
+      <c r="E67" s="228"/>
+      <c r="F67" s="228"/>
+      <c r="G67" s="228"/>
+      <c r="H67" s="228"/>
+      <c r="I67" s="228"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C68" s="224" t="s">
+      <c r="C68" s="227" t="s">
         <v>126</v>
       </c>
-      <c r="D68" s="225" t="s">
+      <c r="D68" s="228" t="s">
         <v>110</v>
       </c>
-      <c r="E68" s="225"/>
-      <c r="F68" s="225"/>
-      <c r="G68" s="225"/>
-      <c r="H68" s="225"/>
-      <c r="I68" s="225"/>
+      <c r="E68" s="228"/>
+      <c r="F68" s="228"/>
+      <c r="G68" s="228"/>
+      <c r="H68" s="228"/>
+      <c r="I68" s="228"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C69" s="224"/>
-      <c r="D69" s="225"/>
-      <c r="E69" s="225"/>
-      <c r="F69" s="225"/>
-      <c r="G69" s="225"/>
-      <c r="H69" s="225"/>
-      <c r="I69" s="225"/>
+      <c r="C69" s="227"/>
+      <c r="D69" s="228"/>
+      <c r="E69" s="228"/>
+      <c r="F69" s="228"/>
+      <c r="G69" s="228"/>
+      <c r="H69" s="228"/>
+      <c r="I69" s="228"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C70" s="224"/>
-      <c r="D70" s="225"/>
-      <c r="E70" s="225"/>
-      <c r="F70" s="225"/>
-      <c r="G70" s="225"/>
-      <c r="H70" s="225"/>
-      <c r="I70" s="225"/>
+      <c r="C70" s="227"/>
+      <c r="D70" s="228"/>
+      <c r="E70" s="228"/>
+      <c r="F70" s="228"/>
+      <c r="G70" s="228"/>
+      <c r="H70" s="228"/>
+      <c r="I70" s="228"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
@@ -11582,53 +11630,53 @@
       <c r="C74" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D74" s="227" t="s">
+      <c r="D74" s="230" t="s">
         <v>31</v>
       </c>
-      <c r="E74" s="227"/>
-      <c r="F74" s="227"/>
-      <c r="G74" s="227"/>
-      <c r="H74" s="227"/>
-      <c r="I74" s="227"/>
+      <c r="E74" s="230"/>
+      <c r="F74" s="230"/>
+      <c r="G74" s="230"/>
+      <c r="H74" s="230"/>
+      <c r="I74" s="230"/>
     </row>
     <row r="75" spans="2:9" s="25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C75" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="226" t="s">
+      <c r="D75" s="229" t="s">
         <v>34</v>
       </c>
-      <c r="E75" s="226"/>
-      <c r="F75" s="226"/>
-      <c r="G75" s="226"/>
-      <c r="H75" s="226"/>
-      <c r="I75" s="226"/>
+      <c r="E75" s="229"/>
+      <c r="F75" s="229"/>
+      <c r="G75" s="229"/>
+      <c r="H75" s="229"/>
+      <c r="I75" s="229"/>
     </row>
     <row r="76" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C76" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="D76" s="226" t="s">
+      <c r="D76" s="229" t="s">
         <v>34</v>
       </c>
-      <c r="E76" s="226"/>
-      <c r="F76" s="226"/>
-      <c r="G76" s="226"/>
-      <c r="H76" s="226"/>
-      <c r="I76" s="226"/>
+      <c r="E76" s="229"/>
+      <c r="F76" s="229"/>
+      <c r="G76" s="229"/>
+      <c r="H76" s="229"/>
+      <c r="I76" s="229"/>
     </row>
     <row r="77" spans="2:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C77" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="D77" s="226" t="s">
+      <c r="D77" s="229" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="226"/>
-      <c r="F77" s="226"/>
-      <c r="G77" s="226"/>
-      <c r="H77" s="226"/>
-      <c r="I77" s="226"/>
+      <c r="E77" s="229"/>
+      <c r="F77" s="229"/>
+      <c r="G77" s="229"/>
+      <c r="H77" s="229"/>
+      <c r="I77" s="229"/>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
@@ -11645,23 +11693,23 @@
       <c r="B91" t="s">
         <v>113</v>
       </c>
-      <c r="C91" s="195" t="s">
+      <c r="C91" s="198" t="s">
         <v>114</v>
       </c>
-      <c r="D91" s="195"/>
+      <c r="D91" s="198"/>
       <c r="F91" t="s">
         <v>115</v>
       </c>
-      <c r="G91" s="222">
+      <c r="G91" s="225">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
-      </c>
-      <c r="H91" s="222"/>
-      <c r="I91" s="222"/>
+        <v>45357</v>
+      </c>
+      <c r="H91" s="225"/>
+      <c r="I91" s="225"/>
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G92" s="228"/>
-      <c r="H92" s="228"/>
+      <c r="G92" s="231"/>
+      <c r="H92" s="231"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -11736,7 +11784,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -11773,28 +11821,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="148" t="s">
+      <c r="A15" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="148"/>
-      <c r="B16" s="148"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -11821,15 +11869,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C21" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -11854,15 +11902,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="122" t="s">
+      <c r="C24" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -11903,16 +11951,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="122" t="s">
+      <c r="B31" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -12002,48 +12050,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="122" t="s">
+      <c r="B45" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="122"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="122"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="148" t="s">
+      <c r="B46" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="148"/>
-      <c r="D46" s="148"/>
-      <c r="E46" s="148"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="148"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="151"/>
+      <c r="F46" s="151"/>
+      <c r="G46" s="151"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="148"/>
-      <c r="C47" s="148"/>
-      <c r="D47" s="148"/>
-      <c r="E47" s="148"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="148"/>
+      <c r="B47" s="151"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="151"/>
+      <c r="G47" s="151"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="148"/>
-      <c r="C48" s="148"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="148"/>
-      <c r="F48" s="148"/>
-      <c r="G48" s="148"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="148"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="151"/>
+      <c r="F48" s="151"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -12056,16 +12104,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="122" t="s">
+      <c r="B59" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="122"/>
-      <c r="D59" s="122"/>
-      <c r="E59" s="122"/>
-      <c r="F59" s="122"/>
-      <c r="G59" s="122"/>
-      <c r="H59" s="122"/>
-      <c r="I59" s="122"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="123"/>
+      <c r="H59" s="123"/>
+      <c r="I59" s="123"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -12079,16 +12127,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="122" t="s">
+      <c r="B62" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="122"/>
-      <c r="D62" s="122"/>
-      <c r="E62" s="122"/>
-      <c r="F62" s="122"/>
-      <c r="G62" s="122"/>
-      <c r="H62" s="122"/>
-      <c r="I62" s="122"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="123"/>
+      <c r="F62" s="123"/>
+      <c r="G62" s="123"/>
+      <c r="H62" s="123"/>
+      <c r="I62" s="123"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -12111,218 +12159,218 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="148" t="s">
+      <c r="B68" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="148"/>
-      <c r="D68" s="148"/>
-      <c r="E68" s="148"/>
-      <c r="F68" s="148"/>
-      <c r="G68" s="148"/>
-      <c r="H68" s="148"/>
-      <c r="I68" s="148"/>
+      <c r="C68" s="151"/>
+      <c r="D68" s="151"/>
+      <c r="E68" s="151"/>
+      <c r="F68" s="151"/>
+      <c r="G68" s="151"/>
+      <c r="H68" s="151"/>
+      <c r="I68" s="151"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="148"/>
-      <c r="C69" s="148"/>
-      <c r="D69" s="148"/>
-      <c r="E69" s="148"/>
-      <c r="F69" s="148"/>
-      <c r="G69" s="148"/>
-      <c r="H69" s="148"/>
-      <c r="I69" s="148"/>
+      <c r="B69" s="151"/>
+      <c r="C69" s="151"/>
+      <c r="D69" s="151"/>
+      <c r="E69" s="151"/>
+      <c r="F69" s="151"/>
+      <c r="G69" s="151"/>
+      <c r="H69" s="151"/>
+      <c r="I69" s="151"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="236"/>
-      <c r="C71" s="237"/>
-      <c r="D71" s="240" t="s">
+      <c r="B71" s="239"/>
+      <c r="C71" s="240"/>
+      <c r="D71" s="243" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="241"/>
-      <c r="F71" s="240" t="s">
+      <c r="E71" s="244"/>
+      <c r="F71" s="243" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="241"/>
-      <c r="H71" s="240" t="s">
+      <c r="G71" s="244"/>
+      <c r="H71" s="243" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="241"/>
+      <c r="I71" s="244"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="238"/>
-      <c r="C72" s="239"/>
-      <c r="D72" s="242"/>
-      <c r="E72" s="243"/>
-      <c r="F72" s="242"/>
-      <c r="G72" s="243"/>
-      <c r="H72" s="242"/>
-      <c r="I72" s="243"/>
+      <c r="B72" s="241"/>
+      <c r="C72" s="242"/>
+      <c r="D72" s="245"/>
+      <c r="E72" s="246"/>
+      <c r="F72" s="245"/>
+      <c r="G72" s="246"/>
+      <c r="H72" s="245"/>
+      <c r="I72" s="246"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="232" t="s">
+      <c r="B73" s="235" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="233"/>
-      <c r="D73" s="229"/>
-      <c r="E73" s="230"/>
-      <c r="F73" s="231"/>
-      <c r="G73" s="230"/>
-      <c r="H73" s="231"/>
-      <c r="I73" s="230"/>
+      <c r="C73" s="236"/>
+      <c r="D73" s="232"/>
+      <c r="E73" s="233"/>
+      <c r="F73" s="234"/>
+      <c r="G73" s="233"/>
+      <c r="H73" s="234"/>
+      <c r="I73" s="233"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="148" t="s">
+      <c r="B75" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="148"/>
-      <c r="D75" s="148"/>
-      <c r="E75" s="148"/>
-      <c r="F75" s="148"/>
-      <c r="G75" s="148"/>
-      <c r="H75" s="148"/>
-      <c r="I75" s="148"/>
+      <c r="C75" s="151"/>
+      <c r="D75" s="151"/>
+      <c r="E75" s="151"/>
+      <c r="F75" s="151"/>
+      <c r="G75" s="151"/>
+      <c r="H75" s="151"/>
+      <c r="I75" s="151"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="148"/>
-      <c r="C76" s="148"/>
-      <c r="D76" s="148"/>
-      <c r="E76" s="148"/>
-      <c r="F76" s="148"/>
-      <c r="G76" s="148"/>
-      <c r="H76" s="148"/>
-      <c r="I76" s="148"/>
+      <c r="B76" s="151"/>
+      <c r="C76" s="151"/>
+      <c r="D76" s="151"/>
+      <c r="E76" s="151"/>
+      <c r="F76" s="151"/>
+      <c r="G76" s="151"/>
+      <c r="H76" s="151"/>
+      <c r="I76" s="151"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="234" t="s">
+      <c r="E78" s="237" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="235"/>
-      <c r="G78" s="235"/>
-      <c r="H78" s="235"/>
+      <c r="F78" s="238"/>
+      <c r="G78" s="238"/>
+      <c r="H78" s="238"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="235"/>
-      <c r="F79" s="235"/>
-      <c r="G79" s="235"/>
-      <c r="H79" s="235"/>
+      <c r="E79" s="238"/>
+      <c r="F79" s="238"/>
+      <c r="G79" s="238"/>
+      <c r="H79" s="238"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="129" t="s">
+      <c r="A81" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="129"/>
-      <c r="C81" s="129"/>
-      <c r="D81" s="129"/>
-      <c r="E81" s="129"/>
-      <c r="F81" s="129"/>
-      <c r="G81" s="129"/>
-      <c r="H81" s="129"/>
-      <c r="I81" s="129"/>
+      <c r="B81" s="131"/>
+      <c r="C81" s="131"/>
+      <c r="D81" s="131"/>
+      <c r="E81" s="131"/>
+      <c r="F81" s="131"/>
+      <c r="G81" s="131"/>
+      <c r="H81" s="131"/>
+      <c r="I81" s="131"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="129"/>
-      <c r="B82" s="129"/>
-      <c r="C82" s="129"/>
-      <c r="D82" s="129"/>
-      <c r="E82" s="129"/>
-      <c r="F82" s="129"/>
-      <c r="G82" s="129"/>
-      <c r="H82" s="129"/>
-      <c r="I82" s="129"/>
+      <c r="A82" s="131"/>
+      <c r="B82" s="131"/>
+      <c r="C82" s="131"/>
+      <c r="D82" s="131"/>
+      <c r="E82" s="131"/>
+      <c r="F82" s="131"/>
+      <c r="G82" s="131"/>
+      <c r="H82" s="131"/>
+      <c r="I82" s="131"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="129"/>
-      <c r="B83" s="129"/>
-      <c r="C83" s="129"/>
-      <c r="D83" s="129"/>
-      <c r="E83" s="129"/>
-      <c r="F83" s="129"/>
-      <c r="G83" s="129"/>
-      <c r="H83" s="129"/>
-      <c r="I83" s="129"/>
+      <c r="A83" s="131"/>
+      <c r="B83" s="131"/>
+      <c r="C83" s="131"/>
+      <c r="D83" s="131"/>
+      <c r="E83" s="131"/>
+      <c r="F83" s="131"/>
+      <c r="G83" s="131"/>
+      <c r="H83" s="131"/>
+      <c r="I83" s="131"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="129"/>
-      <c r="B84" s="129"/>
-      <c r="C84" s="129"/>
-      <c r="D84" s="129"/>
-      <c r="E84" s="129"/>
-      <c r="F84" s="129"/>
-      <c r="G84" s="129"/>
-      <c r="H84" s="129"/>
-      <c r="I84" s="129"/>
+      <c r="A84" s="131"/>
+      <c r="B84" s="131"/>
+      <c r="C84" s="131"/>
+      <c r="D84" s="131"/>
+      <c r="E84" s="131"/>
+      <c r="F84" s="131"/>
+      <c r="G84" s="131"/>
+      <c r="H84" s="131"/>
+      <c r="I84" s="131"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="129"/>
-      <c r="B85" s="129"/>
-      <c r="C85" s="129"/>
-      <c r="D85" s="129"/>
-      <c r="E85" s="129"/>
-      <c r="F85" s="129"/>
-      <c r="G85" s="129"/>
-      <c r="H85" s="129"/>
-      <c r="I85" s="129"/>
+      <c r="A85" s="131"/>
+      <c r="B85" s="131"/>
+      <c r="C85" s="131"/>
+      <c r="D85" s="131"/>
+      <c r="E85" s="131"/>
+      <c r="F85" s="131"/>
+      <c r="G85" s="131"/>
+      <c r="H85" s="131"/>
+      <c r="I85" s="131"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="129"/>
-      <c r="B86" s="129"/>
-      <c r="C86" s="129"/>
-      <c r="D86" s="129"/>
-      <c r="E86" s="129"/>
-      <c r="F86" s="129"/>
-      <c r="G86" s="129"/>
-      <c r="H86" s="129"/>
-      <c r="I86" s="129"/>
+      <c r="A86" s="131"/>
+      <c r="B86" s="131"/>
+      <c r="C86" s="131"/>
+      <c r="D86" s="131"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="131"/>
+      <c r="G86" s="131"/>
+      <c r="H86" s="131"/>
+      <c r="I86" s="131"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="129"/>
-      <c r="B87" s="129"/>
-      <c r="C87" s="129"/>
-      <c r="D87" s="129"/>
-      <c r="E87" s="129"/>
-      <c r="F87" s="129"/>
-      <c r="G87" s="129"/>
-      <c r="H87" s="129"/>
-      <c r="I87" s="129"/>
+      <c r="A87" s="131"/>
+      <c r="B87" s="131"/>
+      <c r="C87" s="131"/>
+      <c r="D87" s="131"/>
+      <c r="E87" s="131"/>
+      <c r="F87" s="131"/>
+      <c r="G87" s="131"/>
+      <c r="H87" s="131"/>
+      <c r="I87" s="131"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="129"/>
-      <c r="B88" s="129"/>
-      <c r="C88" s="129"/>
-      <c r="D88" s="129"/>
-      <c r="E88" s="129"/>
-      <c r="F88" s="129"/>
-      <c r="G88" s="129"/>
-      <c r="H88" s="129"/>
-      <c r="I88" s="129"/>
+      <c r="A88" s="131"/>
+      <c r="B88" s="131"/>
+      <c r="C88" s="131"/>
+      <c r="D88" s="131"/>
+      <c r="E88" s="131"/>
+      <c r="F88" s="131"/>
+      <c r="G88" s="131"/>
+      <c r="H88" s="131"/>
+      <c r="I88" s="131"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="129"/>
-      <c r="B89" s="129"/>
-      <c r="C89" s="129"/>
-      <c r="D89" s="129"/>
-      <c r="E89" s="129"/>
-      <c r="F89" s="129"/>
-      <c r="G89" s="129"/>
-      <c r="H89" s="129"/>
-      <c r="I89" s="129"/>
+      <c r="A89" s="131"/>
+      <c r="B89" s="131"/>
+      <c r="C89" s="131"/>
+      <c r="D89" s="131"/>
+      <c r="E89" s="131"/>
+      <c r="F89" s="131"/>
+      <c r="G89" s="131"/>
+      <c r="H89" s="131"/>
+      <c r="I89" s="131"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="129"/>
-      <c r="B90" s="129"/>
-      <c r="C90" s="129"/>
-      <c r="D90" s="129"/>
-      <c r="E90" s="129"/>
-      <c r="F90" s="129"/>
-      <c r="G90" s="129"/>
-      <c r="H90" s="129"/>
-      <c r="I90" s="129"/>
+      <c r="A90" s="131"/>
+      <c r="B90" s="131"/>
+      <c r="C90" s="131"/>
+      <c r="D90" s="131"/>
+      <c r="E90" s="131"/>
+      <c r="F90" s="131"/>
+      <c r="G90" s="131"/>
+      <c r="H90" s="131"/>
+      <c r="I90" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -12370,7 +12418,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f ca="1">TODAY()</f>
-        <v>45315</v>
+        <v>45357</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -12407,28 +12455,28 @@
       <c r="G13" s="11"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="148" t="s">
+      <c r="A15" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="148"/>
-      <c r="C15" s="148"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="148"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="148"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="151"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="151"/>
+      <c r="I15" s="151"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="148"/>
-      <c r="B16" s="148"/>
-      <c r="C16" s="148"/>
-      <c r="D16" s="148"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="148"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="148"/>
-      <c r="I16" s="148"/>
+      <c r="A16" s="151"/>
+      <c r="B16" s="151"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
+      <c r="H16" s="151"/>
+      <c r="I16" s="151"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
@@ -12455,15 +12503,15 @@
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="122" t="s">
+      <c r="C21" s="123" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="122"/>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
+      <c r="D21" s="123"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="123"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="123"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
@@ -12488,15 +12536,15 @@
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="122" t="s">
+      <c r="C24" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
+      <c r="D24" s="123"/>
+      <c r="E24" s="123"/>
+      <c r="F24" s="123"/>
+      <c r="G24" s="123"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="123"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -12537,16 +12585,16 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="12"/>
-      <c r="B31" s="122" t="s">
+      <c r="B31" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="C31" s="122"/>
-      <c r="D31" s="122"/>
-      <c r="E31" s="122"/>
-      <c r="F31" s="122"/>
-      <c r="G31" s="122"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="122"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="123"/>
+      <c r="F31" s="123"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="123"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="12"/>
@@ -12636,48 +12684,48 @@
       <c r="D43" s="15"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" s="122" t="s">
+      <c r="B45" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="C45" s="122"/>
-      <c r="D45" s="122"/>
-      <c r="E45" s="122"/>
-      <c r="F45" s="122"/>
-      <c r="G45" s="122"/>
-      <c r="H45" s="122"/>
-      <c r="I45" s="122"/>
+      <c r="C45" s="123"/>
+      <c r="D45" s="123"/>
+      <c r="E45" s="123"/>
+      <c r="F45" s="123"/>
+      <c r="G45" s="123"/>
+      <c r="H45" s="123"/>
+      <c r="I45" s="123"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" s="148" t="s">
+      <c r="B46" s="151" t="s">
         <v>61</v>
       </c>
-      <c r="C46" s="148"/>
-      <c r="D46" s="148"/>
-      <c r="E46" s="148"/>
-      <c r="F46" s="148"/>
-      <c r="G46" s="148"/>
-      <c r="H46" s="148"/>
-      <c r="I46" s="148"/>
+      <c r="C46" s="151"/>
+      <c r="D46" s="151"/>
+      <c r="E46" s="151"/>
+      <c r="F46" s="151"/>
+      <c r="G46" s="151"/>
+      <c r="H46" s="151"/>
+      <c r="I46" s="151"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" s="148"/>
-      <c r="C47" s="148"/>
-      <c r="D47" s="148"/>
-      <c r="E47" s="148"/>
-      <c r="F47" s="148"/>
-      <c r="G47" s="148"/>
-      <c r="H47" s="148"/>
-      <c r="I47" s="148"/>
+      <c r="B47" s="151"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="151"/>
+      <c r="G47" s="151"/>
+      <c r="H47" s="151"/>
+      <c r="I47" s="151"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B48" s="148"/>
-      <c r="C48" s="148"/>
-      <c r="D48" s="148"/>
-      <c r="E48" s="148"/>
-      <c r="F48" s="148"/>
-      <c r="G48" s="148"/>
-      <c r="H48" s="148"/>
-      <c r="I48" s="148"/>
+      <c r="B48" s="151"/>
+      <c r="C48" s="151"/>
+      <c r="D48" s="151"/>
+      <c r="E48" s="151"/>
+      <c r="F48" s="151"/>
+      <c r="G48" s="151"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="151"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
@@ -12690,16 +12738,16 @@
       <c r="D57" s="15"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59" s="122" t="s">
+      <c r="B59" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="C59" s="122"/>
-      <c r="D59" s="122"/>
-      <c r="E59" s="122"/>
-      <c r="F59" s="122"/>
-      <c r="G59" s="122"/>
-      <c r="H59" s="122"/>
-      <c r="I59" s="122"/>
+      <c r="C59" s="123"/>
+      <c r="D59" s="123"/>
+      <c r="E59" s="123"/>
+      <c r="F59" s="123"/>
+      <c r="G59" s="123"/>
+      <c r="H59" s="123"/>
+      <c r="I59" s="123"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
@@ -12713,16 +12761,16 @@
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B62" s="122" t="s">
+      <c r="B62" s="123" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="122"/>
-      <c r="D62" s="122"/>
-      <c r="E62" s="122"/>
-      <c r="F62" s="122"/>
-      <c r="G62" s="122"/>
-      <c r="H62" s="122"/>
-      <c r="I62" s="122"/>
+      <c r="C62" s="123"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="123"/>
+      <c r="F62" s="123"/>
+      <c r="G62" s="123"/>
+      <c r="H62" s="123"/>
+      <c r="I62" s="123"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -12745,218 +12793,218 @@
       <c r="B67" s="1"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B68" s="148" t="s">
+      <c r="B68" s="151" t="s">
         <v>73</v>
       </c>
-      <c r="C68" s="148"/>
-      <c r="D68" s="148"/>
-      <c r="E68" s="148"/>
-      <c r="F68" s="148"/>
-      <c r="G68" s="148"/>
-      <c r="H68" s="148"/>
-      <c r="I68" s="148"/>
+      <c r="C68" s="151"/>
+      <c r="D68" s="151"/>
+      <c r="E68" s="151"/>
+      <c r="F68" s="151"/>
+      <c r="G68" s="151"/>
+      <c r="H68" s="151"/>
+      <c r="I68" s="151"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B69" s="148"/>
-      <c r="C69" s="148"/>
-      <c r="D69" s="148"/>
-      <c r="E69" s="148"/>
-      <c r="F69" s="148"/>
-      <c r="G69" s="148"/>
-      <c r="H69" s="148"/>
-      <c r="I69" s="148"/>
+      <c r="B69" s="151"/>
+      <c r="C69" s="151"/>
+      <c r="D69" s="151"/>
+      <c r="E69" s="151"/>
+      <c r="F69" s="151"/>
+      <c r="G69" s="151"/>
+      <c r="H69" s="151"/>
+      <c r="I69" s="151"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B71" s="236"/>
-      <c r="C71" s="237"/>
-      <c r="D71" s="240" t="s">
+      <c r="B71" s="239"/>
+      <c r="C71" s="240"/>
+      <c r="D71" s="243" t="s">
         <v>74</v>
       </c>
-      <c r="E71" s="241"/>
-      <c r="F71" s="240" t="s">
+      <c r="E71" s="244"/>
+      <c r="F71" s="243" t="s">
         <v>75</v>
       </c>
-      <c r="G71" s="241"/>
-      <c r="H71" s="240" t="s">
+      <c r="G71" s="244"/>
+      <c r="H71" s="243" t="s">
         <v>76</v>
       </c>
-      <c r="I71" s="241"/>
+      <c r="I71" s="244"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="238"/>
-      <c r="C72" s="239"/>
-      <c r="D72" s="242"/>
-      <c r="E72" s="243"/>
-      <c r="F72" s="242"/>
-      <c r="G72" s="243"/>
-      <c r="H72" s="242"/>
-      <c r="I72" s="243"/>
+      <c r="B72" s="241"/>
+      <c r="C72" s="242"/>
+      <c r="D72" s="245"/>
+      <c r="E72" s="246"/>
+      <c r="F72" s="245"/>
+      <c r="G72" s="246"/>
+      <c r="H72" s="245"/>
+      <c r="I72" s="246"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B73" s="232" t="s">
+      <c r="B73" s="235" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="233"/>
-      <c r="D73" s="229"/>
-      <c r="E73" s="230"/>
-      <c r="F73" s="231"/>
-      <c r="G73" s="230"/>
-      <c r="H73" s="231"/>
-      <c r="I73" s="230"/>
+      <c r="C73" s="236"/>
+      <c r="D73" s="232"/>
+      <c r="E73" s="233"/>
+      <c r="F73" s="234"/>
+      <c r="G73" s="233"/>
+      <c r="H73" s="234"/>
+      <c r="I73" s="233"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B75" s="148" t="s">
+      <c r="B75" s="151" t="s">
         <v>78</v>
       </c>
-      <c r="C75" s="148"/>
-      <c r="D75" s="148"/>
-      <c r="E75" s="148"/>
-      <c r="F75" s="148"/>
-      <c r="G75" s="148"/>
-      <c r="H75" s="148"/>
-      <c r="I75" s="148"/>
+      <c r="C75" s="151"/>
+      <c r="D75" s="151"/>
+      <c r="E75" s="151"/>
+      <c r="F75" s="151"/>
+      <c r="G75" s="151"/>
+      <c r="H75" s="151"/>
+      <c r="I75" s="151"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B76" s="148"/>
-      <c r="C76" s="148"/>
-      <c r="D76" s="148"/>
-      <c r="E76" s="148"/>
-      <c r="F76" s="148"/>
-      <c r="G76" s="148"/>
-      <c r="H76" s="148"/>
-      <c r="I76" s="148"/>
+      <c r="B76" s="151"/>
+      <c r="C76" s="151"/>
+      <c r="D76" s="151"/>
+      <c r="E76" s="151"/>
+      <c r="F76" s="151"/>
+      <c r="G76" s="151"/>
+      <c r="H76" s="151"/>
+      <c r="I76" s="151"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="E78" s="234" t="s">
+      <c r="E78" s="237" t="s">
         <v>81</v>
       </c>
-      <c r="F78" s="235"/>
-      <c r="G78" s="235"/>
-      <c r="H78" s="235"/>
+      <c r="F78" s="238"/>
+      <c r="G78" s="238"/>
+      <c r="H78" s="238"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="E79" s="235"/>
-      <c r="F79" s="235"/>
-      <c r="G79" s="235"/>
-      <c r="H79" s="235"/>
+      <c r="E79" s="238"/>
+      <c r="F79" s="238"/>
+      <c r="G79" s="238"/>
+      <c r="H79" s="238"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="129" t="s">
+      <c r="A81" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="129"/>
-      <c r="C81" s="129"/>
-      <c r="D81" s="129"/>
-      <c r="E81" s="129"/>
-      <c r="F81" s="129"/>
-      <c r="G81" s="129"/>
-      <c r="H81" s="129"/>
-      <c r="I81" s="129"/>
+      <c r="B81" s="131"/>
+      <c r="C81" s="131"/>
+      <c r="D81" s="131"/>
+      <c r="E81" s="131"/>
+      <c r="F81" s="131"/>
+      <c r="G81" s="131"/>
+      <c r="H81" s="131"/>
+      <c r="I81" s="131"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="129"/>
-      <c r="B82" s="129"/>
-      <c r="C82" s="129"/>
-      <c r="D82" s="129"/>
-      <c r="E82" s="129"/>
-      <c r="F82" s="129"/>
-      <c r="G82" s="129"/>
-      <c r="H82" s="129"/>
-      <c r="I82" s="129"/>
+      <c r="A82" s="131"/>
+      <c r="B82" s="131"/>
+      <c r="C82" s="131"/>
+      <c r="D82" s="131"/>
+      <c r="E82" s="131"/>
+      <c r="F82" s="131"/>
+      <c r="G82" s="131"/>
+      <c r="H82" s="131"/>
+      <c r="I82" s="131"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="129"/>
-      <c r="B83" s="129"/>
-      <c r="C83" s="129"/>
-      <c r="D83" s="129"/>
-      <c r="E83" s="129"/>
-      <c r="F83" s="129"/>
-      <c r="G83" s="129"/>
-      <c r="H83" s="129"/>
-      <c r="I83" s="129"/>
+      <c r="A83" s="131"/>
+      <c r="B83" s="131"/>
+      <c r="C83" s="131"/>
+      <c r="D83" s="131"/>
+      <c r="E83" s="131"/>
+      <c r="F83" s="131"/>
+      <c r="G83" s="131"/>
+      <c r="H83" s="131"/>
+      <c r="I83" s="131"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="129"/>
-      <c r="B84" s="129"/>
-      <c r="C84" s="129"/>
-      <c r="D84" s="129"/>
-      <c r="E84" s="129"/>
-      <c r="F84" s="129"/>
-      <c r="G84" s="129"/>
-      <c r="H84" s="129"/>
-      <c r="I84" s="129"/>
+      <c r="A84" s="131"/>
+      <c r="B84" s="131"/>
+      <c r="C84" s="131"/>
+      <c r="D84" s="131"/>
+      <c r="E84" s="131"/>
+      <c r="F84" s="131"/>
+      <c r="G84" s="131"/>
+      <c r="H84" s="131"/>
+      <c r="I84" s="131"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="129"/>
-      <c r="B85" s="129"/>
-      <c r="C85" s="129"/>
-      <c r="D85" s="129"/>
-      <c r="E85" s="129"/>
-      <c r="F85" s="129"/>
-      <c r="G85" s="129"/>
-      <c r="H85" s="129"/>
-      <c r="I85" s="129"/>
+      <c r="A85" s="131"/>
+      <c r="B85" s="131"/>
+      <c r="C85" s="131"/>
+      <c r="D85" s="131"/>
+      <c r="E85" s="131"/>
+      <c r="F85" s="131"/>
+      <c r="G85" s="131"/>
+      <c r="H85" s="131"/>
+      <c r="I85" s="131"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="129"/>
-      <c r="B86" s="129"/>
-      <c r="C86" s="129"/>
-      <c r="D86" s="129"/>
-      <c r="E86" s="129"/>
-      <c r="F86" s="129"/>
-      <c r="G86" s="129"/>
-      <c r="H86" s="129"/>
-      <c r="I86" s="129"/>
+      <c r="A86" s="131"/>
+      <c r="B86" s="131"/>
+      <c r="C86" s="131"/>
+      <c r="D86" s="131"/>
+      <c r="E86" s="131"/>
+      <c r="F86" s="131"/>
+      <c r="G86" s="131"/>
+      <c r="H86" s="131"/>
+      <c r="I86" s="131"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="129"/>
-      <c r="B87" s="129"/>
-      <c r="C87" s="129"/>
-      <c r="D87" s="129"/>
-      <c r="E87" s="129"/>
-      <c r="F87" s="129"/>
-      <c r="G87" s="129"/>
-      <c r="H87" s="129"/>
-      <c r="I87" s="129"/>
+      <c r="A87" s="131"/>
+      <c r="B87" s="131"/>
+      <c r="C87" s="131"/>
+      <c r="D87" s="131"/>
+      <c r="E87" s="131"/>
+      <c r="F87" s="131"/>
+      <c r="G87" s="131"/>
+      <c r="H87" s="131"/>
+      <c r="I87" s="131"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="129"/>
-      <c r="B88" s="129"/>
-      <c r="C88" s="129"/>
-      <c r="D88" s="129"/>
-      <c r="E88" s="129"/>
-      <c r="F88" s="129"/>
-      <c r="G88" s="129"/>
-      <c r="H88" s="129"/>
-      <c r="I88" s="129"/>
+      <c r="A88" s="131"/>
+      <c r="B88" s="131"/>
+      <c r="C88" s="131"/>
+      <c r="D88" s="131"/>
+      <c r="E88" s="131"/>
+      <c r="F88" s="131"/>
+      <c r="G88" s="131"/>
+      <c r="H88" s="131"/>
+      <c r="I88" s="131"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="129"/>
-      <c r="B89" s="129"/>
-      <c r="C89" s="129"/>
-      <c r="D89" s="129"/>
-      <c r="E89" s="129"/>
-      <c r="F89" s="129"/>
-      <c r="G89" s="129"/>
-      <c r="H89" s="129"/>
-      <c r="I89" s="129"/>
+      <c r="A89" s="131"/>
+      <c r="B89" s="131"/>
+      <c r="C89" s="131"/>
+      <c r="D89" s="131"/>
+      <c r="E89" s="131"/>
+      <c r="F89" s="131"/>
+      <c r="G89" s="131"/>
+      <c r="H89" s="131"/>
+      <c r="I89" s="131"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="129"/>
-      <c r="B90" s="129"/>
-      <c r="C90" s="129"/>
-      <c r="D90" s="129"/>
-      <c r="E90" s="129"/>
-      <c r="F90" s="129"/>
-      <c r="G90" s="129"/>
-      <c r="H90" s="129"/>
-      <c r="I90" s="129"/>
+      <c r="A90" s="131"/>
+      <c r="B90" s="131"/>
+      <c r="C90" s="131"/>
+      <c r="D90" s="131"/>
+      <c r="E90" s="131"/>
+      <c r="F90" s="131"/>
+      <c r="G90" s="131"/>
+      <c r="H90" s="131"/>
+      <c r="I90" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="20">
